--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -70,9 +70,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
@@ -350,23 +347,53 @@
   </si>
   <si>
     <t>http://refman.et-model.com/publications/1930</t>
+  </si>
+  <si>
+    <r>
+      <t>quintel/etsource@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2740f4510acc9daf24a2cd9283ca953db9a11779</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -834,454 +861,456 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2239,7 +2268,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2257,7 +2286,7 @@
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="27"/>
     </row>
@@ -2269,28 +2298,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2306,7 +2335,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="90"/>
     </row>
@@ -2318,31 +2347,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="93" t="s">
         <v>71</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="91"/>
       <c r="C12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="91"/>
       <c r="C13" s="94" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2353,61 +2382,64 @@
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="95" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="91"/>
       <c r="C17" s="96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="91"/>
       <c r="C18" s="97" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="91"/>
       <c r="C19" s="98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="99"/>
       <c r="C20" s="100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="99"/>
       <c r="C21" s="101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="99"/>
       <c r="C22" s="102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="99"/>
       <c r="C23" s="103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B2">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2423,11 +2455,9 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2451,36 +2481,36 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -2501,17 +2531,17 @@
     <row r="8" spans="2:11" s="23" customFormat="1">
       <c r="B8" s="111"/>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
@@ -2533,7 +2563,7 @@
     <row r="10" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="13"/>
@@ -2546,7 +2576,7 @@
     <row r="11" spans="2:11" s="23" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="22"/>
       <c r="C11" s="73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>3</v>
@@ -2558,14 +2588,14 @@
       <c r="G11" s="39"/>
       <c r="H11" s="30"/>
       <c r="I11" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="16" thickBot="1">
       <c r="B12" s="40"/>
       <c r="C12" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>3</v>
@@ -2577,7 +2607,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="110"/>
       <c r="K12" s="36"/>
@@ -2585,7 +2615,7 @@
     <row r="13" spans="2:11" ht="16" thickBot="1">
       <c r="B13" s="40"/>
       <c r="C13" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>3</v>
@@ -2597,7 +2627,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" s="110"/>
       <c r="K13" s="36"/>
@@ -2605,19 +2635,19 @@
     <row r="14" spans="2:11" ht="16" thickBot="1">
       <c r="B14" s="40"/>
       <c r="C14" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="34">
-        <v>0.05</v>
+      <c r="E14" s="41">
+        <v>0</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
       <c r="I14" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="110"/>
       <c r="K14" s="36"/>
@@ -2625,19 +2655,19 @@
     <row r="15" spans="2:11" ht="16" thickBot="1">
       <c r="B15" s="40"/>
       <c r="C15" s="39" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="41">
-        <v>0</v>
+      <c r="E15" s="42">
+        <v>1104.9363103000001</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="34" t="s">
-        <v>38</v>
+      <c r="I15" s="123" t="s">
+        <v>102</v>
       </c>
       <c r="J15" s="110"/>
       <c r="K15" s="36"/>
@@ -2645,19 +2675,19 @@
     <row r="16" spans="2:11" ht="16" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="39" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="42">
-        <v>408.82643481555903</v>
+      <c r="E16" s="34">
+        <v>0</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J16" s="110"/>
       <c r="K16" s="36"/>
@@ -2677,7 +2707,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" s="110"/>
       <c r="K17" s="36"/>
@@ -2685,22 +2715,21 @@
     <row r="18" spans="2:11" ht="16" thickBot="1">
       <c r="B18" s="40"/>
       <c r="C18" s="39" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="34">
-        <v>0</v>
+      <c r="E18" s="124">
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
-      <c r="I18" s="34" t="s">
-        <v>38</v>
+      <c r="I18" s="123" t="s">
+        <v>102</v>
       </c>
       <c r="J18" s="110"/>
-      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="2:11" ht="16" thickBot="1">
       <c r="B19" s="40"/>
@@ -2711,13 +2740,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="110"/>
     </row>
@@ -2729,46 +2758,48 @@
       <c r="D20" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="42">
-        <v>0</v>
+      <c r="E20" s="124">
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
-      <c r="I20" s="34" t="s">
-        <v>38</v>
+      <c r="I20" s="123" t="s">
+        <v>102</v>
       </c>
       <c r="J20" s="110"/>
     </row>
     <row r="21" spans="2:11" ht="16" thickBot="1">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0.01</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0.221747873829401</v>
       </c>
       <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="G21" s="68" t="s">
+        <v>42</v>
+      </c>
       <c r="H21" s="39"/>
       <c r="I21" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J21" s="110"/>
     </row>
     <row r="22" spans="2:11" ht="16" thickBot="1">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="41">
-        <v>0.221747873829401</v>
+        <v>0.78572582355204501</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="68" t="s">
@@ -2776,20 +2807,20 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J22" s="110"/>
     </row>
     <row r="23" spans="2:11" ht="16" thickBot="1">
       <c r="B23" s="40"/>
       <c r="C23" s="39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="41">
-        <v>0.78572582355204501</v>
+        <v>0.28698540649274501</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="68" t="s">
@@ -2797,7 +2828,7 @@
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J23" s="110"/>
     </row>
@@ -2810,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="41">
-        <v>0.28698540649274501</v>
+        <v>0.97934745639203202</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="68" t="s">
@@ -2818,7 +2849,7 @@
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="110"/>
     </row>
@@ -2830,43 +2861,35 @@
       <c r="D25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="41">
-        <v>0.97934745639203202</v>
+      <c r="E25" s="46">
+        <v>1358.90321232822</v>
       </c>
       <c r="F25" s="39"/>
-      <c r="G25" s="68" t="s">
-        <v>46</v>
+      <c r="G25" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11">
       <c r="B26" s="40"/>
-      <c r="C26" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="46">
-        <v>1358.90321232822</v>
-      </c>
-      <c r="F26" s="39"/>
-      <c r="G26" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="34" t="s">
-        <v>38</v>
-      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" ht="16" thickBot="1">
       <c r="B27" s="40"/>
-      <c r="C27" s="36"/>
+      <c r="C27" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="D27" s="113"/>
       <c r="E27" s="114"/>
       <c r="F27" s="36"/>
@@ -2877,15 +2900,24 @@
     </row>
     <row r="28" spans="2:11" ht="16" thickBot="1">
       <c r="B28" s="40"/>
-      <c r="C28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="C28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="41">
+        <f>'Research data'!H10</f>
+        <v>24900</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="72" t="s">
+        <v>62</v>
+      </c>
       <c r="J28" s="110"/>
     </row>
     <row r="29" spans="2:11" ht="16" thickBot="1">
@@ -2894,66 +2926,57 @@
         <v>33</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="41">
-        <f>'Research data'!H10</f>
-        <v>24900</v>
+        <v>36</v>
+      </c>
+      <c r="E29" s="109">
+        <f>'Research data'!H11</f>
+        <v>180</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="72" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="J29" s="110"/>
     </row>
     <row r="30" spans="2:11" ht="16" thickBot="1">
       <c r="B30" s="40"/>
       <c r="C30" s="39" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D30" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="109">
-        <f>'Research data'!H11</f>
-        <v>180</v>
-      </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="72" t="s">
-        <v>99</v>
-      </c>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11">
       <c r="B31" s="40"/>
-      <c r="C31" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0.01</v>
-      </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="34" t="s">
-        <v>38</v>
-      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" ht="16" thickBot="1">
       <c r="B32" s="40"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="D32" s="113"/>
       <c r="E32" s="115"/>
       <c r="F32" s="36"/>
@@ -2964,68 +2987,55 @@
     </row>
     <row r="33" spans="2:10" ht="16" thickBot="1">
       <c r="B33" s="40"/>
-      <c r="C33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="21" t="s">
+      <c r="C33" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E33" s="41">
         <f>'Research data'!H7</f>
         <v>15</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="120" t="s">
-        <v>64</v>
+      <c r="F33" s="39"/>
+      <c r="G33" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="120" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="110"/>
+    </row>
+    <row r="34" spans="2:10" ht="16" thickBot="1">
+      <c r="B34" s="116"/>
+      <c r="C34" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="117">
+        <v>0</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="118" t="s">
+        <v>37</v>
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
-      <c r="B35" s="116"/>
-      <c r="C35" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="117">
-        <v>0</v>
-      </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="110"/>
-    </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="45"/>
+    <row r="35" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3134,40 +3144,40 @@
     <row r="4" spans="2:20" s="23" customFormat="1">
       <c r="B4" s="22"/>
       <c r="C4" s="104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="104"/>
       <c r="H4" s="104" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="104"/>
       <c r="J4" s="104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="104"/>
       <c r="L4" s="104" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="104"/>
       <c r="N4" s="104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="104"/>
       <c r="P4" s="104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="104"/>
       <c r="R4" s="104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S4" s="104"/>
       <c r="T4" s="104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="18" customHeight="1">
@@ -3266,7 +3276,7 @@
     <row r="9" spans="2:20" ht="16" thickBot="1">
       <c r="B9" s="51"/>
       <c r="C9" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -3289,12 +3299,12 @@
     <row r="10" spans="2:20" ht="16" thickBot="1">
       <c r="B10" s="51"/>
       <c r="C10" s="108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="106"/>
       <c r="H10" s="57">
@@ -3326,12 +3336,12 @@
     <row r="11" spans="2:20" ht="16" thickBot="1">
       <c r="B11" s="51"/>
       <c r="C11" s="108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="105"/>
       <c r="H11" s="63">
@@ -3405,7 +3415,7 @@
     <row r="3" spans="2:10">
       <c r="B3" s="79"/>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3429,28 +3439,28 @@
     <row r="5" spans="2:10">
       <c r="B5" s="84"/>
       <c r="C5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>21</v>
-      </c>
       <c r="I5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -3468,7 +3478,7 @@
       <c r="B7" s="79"/>
       <c r="C7" s="85"/>
       <c r="D7" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="74" t="s">
         <v>8</v>
@@ -3476,11 +3486,11 @@
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
       <c r="H7" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="74"/>
       <c r="J7" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -3511,7 +3521,7 @@
       <c r="B10" s="79"/>
       <c r="C10" s="86"/>
       <c r="D10" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>8</v>
@@ -3519,11 +3529,11 @@
       <c r="F10" s="74"/>
       <c r="G10" s="74"/>
       <c r="H10" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -3552,7 +3562,7 @@
       <c r="B13" s="79"/>
       <c r="C13" s="86"/>
       <c r="D13" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="74" t="s">
         <v>8</v>
@@ -3560,11 +3570,11 @@
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
       <c r="H13" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I13" s="74"/>
       <c r="J13" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -3595,10 +3605,10 @@
       <c r="B16" s="79"/>
       <c r="C16" s="86"/>
       <c r="D16" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="74">
         <v>2012</v>
@@ -3608,10 +3618,10 @@
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -3642,7 +3652,7 @@
       <c r="B19" s="79"/>
       <c r="C19" s="85"/>
       <c r="D19" s="74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="74" t="s">
         <v>8</v>
@@ -3655,16 +3665,16 @@
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="79"/>
       <c r="C20" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="74"/>
@@ -3726,11 +3736,11 @@
       <c r="A3" s="23"/>
       <c r="B3" s="111"/>
       <c r="C3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -3772,7 +3782,7 @@
     <row r="6" spans="1:13">
       <c r="B6" s="79"/>
       <c r="C6" s="74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
@@ -3807,7 +3817,7 @@
         <v>29990</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
@@ -4100,7 +4110,7 @@
     <row r="29" spans="2:13">
       <c r="B29" s="79"/>
       <c r="C29" s="74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
@@ -4247,7 +4257,7 @@
         <v>24110</v>
       </c>
       <c r="F39" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
@@ -4498,7 +4508,7 @@
     <row r="57" spans="2:13">
       <c r="B57" s="79"/>
       <c r="C57" s="74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D57" s="74"/>
       <c r="E57" s="74"/>
@@ -4589,7 +4599,7 @@
         <v>20600</v>
       </c>
       <c r="F63" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
@@ -4756,7 +4766,7 @@
     <row r="75" spans="2:13">
       <c r="B75" s="79"/>
       <c r="C75" s="119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="74"/>
       <c r="E75" s="74"/>
@@ -4772,7 +4782,7 @@
     <row r="76" spans="2:13">
       <c r="B76" s="79"/>
       <c r="C76" s="119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D76" s="74"/>
       <c r="E76" s="74"/>
@@ -4863,7 +4873,7 @@
         <v>180</v>
       </c>
       <c r="F82" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
@@ -4946,7 +4956,7 @@
     <row r="88" spans="2:13">
       <c r="B88" s="79"/>
       <c r="C88" s="119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D88" s="74"/>
       <c r="E88" s="74"/>
@@ -4962,7 +4972,7 @@
     <row r="89" spans="2:13">
       <c r="B89" s="79"/>
       <c r="C89" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D89" s="74"/>
       <c r="E89" s="74"/>
@@ -4997,7 +5007,7 @@
         <v>15</v>
       </c>
       <c r="F91" s="119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>

--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t>Source</t>
   </si>
@@ -535,6 +535,9 @@
   <si>
     <t>storage_volume</t>
   </si>
+  <si>
+    <t>Hard-coded to 25 kWh, see https://github.com/quintel/etmoses/issues/808#issuecomment-199221082 fro discussion</t>
+  </si>
 </sst>
 </file>
 
@@ -548,12 +551,19 @@
     <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1060,571 +1070,572 @@
   </borders>
   <cellStyleXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="296">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2790,9 +2801,7 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2816,36 +2825,36 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="167"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
+      <c r="B4" s="169"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="171"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="174"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
@@ -2939,13 +2948,15 @@
         <v>102</v>
       </c>
       <c r="E12" s="149">
-        <f>'Research data'!H8/1000</f>
-        <v>2.0175000000000002E-2</v>
+        <f>0.025</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="135"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="142"/>
+      <c r="I12" s="175" t="s">
+        <v>141</v>
+      </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
@@ -4160,7 +4171,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="76"/>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="164" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4203,7 +4214,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="76"/>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="165" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="71" t="s">
@@ -4228,7 +4239,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="76"/>
-      <c r="C14" s="174" t="s">
+      <c r="C14" s="165" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="71" t="s">
@@ -4253,7 +4264,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="76"/>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="165" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="71" t="s">
@@ -4278,7 +4289,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="76"/>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="165" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="118" t="s">

--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>Source</t>
   </si>
@@ -169,21 +169,6 @@
     <t>transport_car_using_electricity.converter.ad</t>
   </si>
   <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>Citroen</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>http://www.nissan.nl/NL/nl/vehicle/electric-vehicles/leaf/corporate_sales/nissan-leaf-fleet.html</t>
-  </si>
-  <si>
-    <t>http://www.citroen.nl/auto/personenauto/c-zero.html</t>
-  </si>
-  <si>
     <t>output.car_kms</t>
   </si>
   <si>
@@ -202,9 +187,6 @@
     <t>ucs</t>
   </si>
   <si>
-    <t>Sourcse</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -287,33 +269,6 @@
   </si>
   <si>
     <t>ETM Library URL</t>
-  </si>
-  <si>
-    <r>
-      <t>quintel/etsource@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2740f4510acc9daf24a2cd9283ca953db9a11779</t>
-    </r>
-  </si>
-  <si>
-    <t>http://www.mitsubishi-motors.nl/i-miev/#!section-cc</t>
-  </si>
-  <si>
-    <t>09.09.2015</t>
-  </si>
-  <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>http://www.volkswagen.nl/modellen/up/uitvoeringen/e-up?tab=highlights</t>
   </si>
   <si>
     <t>km/MJ</t>
@@ -380,21 +335,6 @@
   </si>
   <si>
     <t>storage.decay</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
-    <t>http://www.greencarreports.com/news/1088929_life-with-tesla-model-s-electric-draw-vampire-slain-at-last</t>
-  </si>
-  <si>
-    <t>Downloaded from:</t>
-  </si>
-  <si>
-    <t>Green car repots</t>
-  </si>
-  <si>
-    <t>hours</t>
   </si>
   <si>
     <t>MW</t>
@@ -521,22 +461,61 @@
     <t>p.84</t>
   </si>
   <si>
-    <t>Citroen C-zero</t>
-  </si>
-  <si>
-    <t>Nissan Leaf</t>
-  </si>
-  <si>
-    <t>Volkswagen E-up</t>
-  </si>
-  <si>
-    <t>Mitsubishi Mi-ev</t>
-  </si>
-  <si>
-    <t>storage_volume</t>
-  </si>
-  <si>
-    <t>Hard-coded to 25 kWh, see https://github.com/quintel/etmoses/issues/808#issuecomment-199221082 fro discussion</t>
+    <t>https://www.tesla.com/sites/default/files/blog_attachments/model_s_owners_manual_europe_1.0.pdf</t>
+  </si>
+  <si>
+    <t>battery size</t>
+  </si>
+  <si>
+    <t>kWh/day</t>
+  </si>
+  <si>
+    <t>Tesla model s owner's manual</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>23/08/16</t>
+  </si>
+  <si>
+    <t>storage decay per day</t>
+  </si>
+  <si>
+    <t>storage decay</t>
+  </si>
+  <si>
+    <t>storage volume</t>
+  </si>
+  <si>
+    <t>p 6.4</t>
+  </si>
+  <si>
+    <t>MWh/day</t>
+  </si>
+  <si>
+    <t>See argumentation in Notes</t>
+  </si>
+  <si>
+    <t>Tesla website</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Tesla Model S user Manual</t>
+  </si>
+  <si>
+    <t>Tesla model S P100D</t>
+  </si>
+  <si>
+    <t>https://www.tesla.com/nl_NL/blog/new-tesla-model-s-now-quickest-production-car-world?redirect=no</t>
+  </si>
+  <si>
+    <t>Tesla Model S P100D website anouncement</t>
+  </si>
+  <si>
+    <t>Tesla Model S P100D</t>
   </si>
 </sst>
 </file>
@@ -551,7 +530,7 @@
     <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -772,6 +751,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1068,7 +1058,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="296">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1246,10 +1236,48 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1369,7 +1397,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1437,7 +1465,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1448,7 +1475,6 @@
     <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1464,9 +1490,6 @@
     <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1479,7 +1502,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1535,79 +1557,92 @@
     <xf numFmtId="164" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1635,9 +1670,15 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="296">
+  <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1726,6 +1767,7 @@
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
@@ -1844,6 +1886,47 @@
     <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1932,7 +2015,6 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2025,8 +2107,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -2059,14 +2141,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2083,46 +2165,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5511800" y="6591300"/>
+          <a:off x="5511800" y="6705600"/>
           <a:ext cx="19431000" cy="9944100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5562600" y="16916400"/>
-          <a:ext cx="7988300" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,14 +2183,52 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="3302000"/>
+          <a:ext cx="6870700" cy="2844800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2159,8 +2241,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4775200" y="3302000"/>
-          <a:ext cx="6870700" cy="2844800"/>
+          <a:off x="14008100" y="17297400"/>
+          <a:ext cx="2997200" cy="4051300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966200" y="21920200"/>
+          <a:ext cx="8166100" cy="8267700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8966200" y="30060900"/>
+          <a:ext cx="8597900" cy="8255000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2651,10 +2809,10 @@
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2678,106 +2836,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="86"/>
+      <c r="B9" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>60</v>
+      <c r="B11" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="87"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="90" t="s">
-        <v>62</v>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88" t="s">
-        <v>63</v>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="91" t="s">
-        <v>65</v>
+      <c r="B16" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="92" t="s">
-        <v>66</v>
+      <c r="B17" s="83"/>
+      <c r="C17" s="88" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="93" t="s">
-        <v>67</v>
+      <c r="B18" s="83"/>
+      <c r="C18" s="89" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="94" t="s">
-        <v>68</v>
+      <c r="B19" s="83"/>
+      <c r="C19" s="90" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="96" t="s">
-        <v>69</v>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="97" t="s">
-        <v>70</v>
+      <c r="B21" s="91"/>
+      <c r="C21" s="93" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="98" t="s">
-        <v>71</v>
+      <c r="B22" s="91"/>
+      <c r="C22" s="94" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="95"/>
-      <c r="C23" s="99" t="s">
-        <v>72</v>
+      <c r="B23" s="91"/>
+      <c r="C23" s="95" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2959,9 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2825,36 +2985,36 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="168"/>
+      <c r="B2" s="171" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="171"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="171"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
@@ -2873,11 +3033,11 @@
       <c r="J7" s="37"/>
     </row>
     <row r="8" spans="2:11" s="22" customFormat="1">
-      <c r="B8" s="106"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2907,7 +3067,7 @@
     <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
@@ -2919,62 +3079,65 @@
     </row>
     <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="70" t="s">
-        <v>47</v>
+      <c r="C11" s="67" t="s">
+        <v>42</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E11" s="33">
         <f>'Research data'!H7</f>
         <v>1.5384615384615383</v>
       </c>
       <c r="F11" s="38"/>
-      <c r="G11" s="135" t="s">
-        <v>92</v>
+      <c r="G11" s="126" t="s">
+        <v>81</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="142" t="s">
-        <v>100</v>
+      <c r="I11" s="132" t="s">
+        <v>89</v>
       </c>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="70" t="s">
-        <v>101</v>
+      <c r="C12" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="149">
-        <f>0.025</f>
-        <v>2.5000000000000001E-2</v>
+        <v>91</v>
+      </c>
+      <c r="E12" s="135">
+        <f>'Research data'!H8/1000</f>
+        <v>0.1</v>
       </c>
       <c r="F12" s="38"/>
-      <c r="G12" s="135"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="175" t="s">
-        <v>141</v>
+      <c r="I12" s="182" t="s">
+        <v>138</v>
       </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="70" t="s">
-        <v>104</v>
+      <c r="C13" s="67" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="148">
+        <v>130</v>
+      </c>
+      <c r="E13" s="134">
         <f>'Research data'!H9/1000</f>
-        <v>4.4444444444444447E-5</v>
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="F13" s="38"/>
-      <c r="G13" s="135"/>
+      <c r="G13" s="126"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="142"/>
+      <c r="I13" s="132" t="str">
+        <f>Sources!D11</f>
+        <v>Tesla model s owner's manual</v>
+      </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="16" thickBot="1">
@@ -2994,7 +3157,7 @@
       <c r="I14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="105"/>
+      <c r="J14" s="101"/>
       <c r="K14" s="35"/>
     </row>
     <row r="15" spans="2:11" ht="16" thickBot="1">
@@ -3014,7 +3177,7 @@
       <c r="I15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="105"/>
+      <c r="J15" s="101"/>
       <c r="K15" s="35"/>
     </row>
     <row r="16" spans="2:11" ht="16" thickBot="1">
@@ -3034,13 +3197,13 @@
       <c r="I16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="105"/>
+      <c r="J16" s="101"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1">
       <c r="B17" s="39"/>
       <c r="C17" s="38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>3</v>
@@ -3051,10 +3214,10 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="105"/>
+      <c r="I17" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="101"/>
       <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickBot="1">
@@ -3074,7 +3237,7 @@
       <c r="I18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="105"/>
+      <c r="J18" s="101"/>
       <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1">
@@ -3094,32 +3257,32 @@
       <c r="I19" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="105"/>
+      <c r="J19" s="101"/>
       <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1">
       <c r="B20" s="39"/>
-      <c r="C20" s="38" t="s">
-        <v>49</v>
+      <c r="C20" s="167" t="s">
+        <v>44</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="116">
+        <v>94</v>
+      </c>
+      <c r="E20" s="111">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="105"/>
+      <c r="I20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="101"/>
     </row>
     <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>3</v>
@@ -3133,26 +3296,26 @@
       <c r="I21" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="105"/>
+      <c r="J21" s="101"/>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="B22" s="39"/>
-      <c r="C22" s="38" t="s">
-        <v>51</v>
+      <c r="C22" s="167" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="111">
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="105"/>
+      <c r="I22" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="101"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="B23" s="39"/>
@@ -3162,18 +3325,18 @@
       <c r="D23" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="163">
+      <c r="E23" s="149">
         <v>0.221747873829401</v>
       </c>
       <c r="F23" s="38"/>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="63" t="s">
         <v>37</v>
       </c>
       <c r="H23" s="38"/>
       <c r="I23" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="105"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="B24" s="39"/>
@@ -3183,18 +3346,18 @@
       <c r="D24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="163">
+      <c r="E24" s="149">
         <v>0.78572582355204501</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="63" t="s">
         <v>38</v>
       </c>
       <c r="H24" s="38"/>
       <c r="I24" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J24" s="105"/>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="B25" s="39"/>
@@ -3204,18 +3367,18 @@
       <c r="D25" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="163">
+      <c r="E25" s="149">
         <v>0.28698540649274501</v>
       </c>
       <c r="F25" s="38"/>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="63" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="105"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" spans="1:11" ht="16" thickBot="1">
       <c r="B26" s="39"/>
@@ -3225,18 +3388,18 @@
       <c r="D26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="163">
+      <c r="E26" s="149">
         <v>0.97934745639203202</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="63" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="38"/>
       <c r="I26" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J26" s="105"/>
+      <c r="J26" s="101"/>
     </row>
     <row r="27" spans="1:11" ht="16" thickBot="1">
       <c r="B27" s="39"/>
@@ -3257,245 +3420,245 @@
       <c r="I27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="105"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="109"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
-      <c r="J28" s="105"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:11" ht="16" thickBot="1">
-      <c r="A29" s="150"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
+        <v>95</v>
+      </c>
+      <c r="D29" s="104"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:11" ht="16" thickBot="1">
-      <c r="A30" s="150"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="155" t="s">
-        <v>112</v>
+      <c r="A30" s="136"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="141" t="s">
+        <v>96</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="156">
+      <c r="E30" s="142">
         <v>0</v>
       </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155" t="s">
+      <c r="F30" s="141"/>
+      <c r="G30" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="154"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="140"/>
     </row>
     <row r="31" spans="1:11" ht="16" thickBot="1">
-      <c r="A31" s="150"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="155" t="s">
-        <v>114</v>
+      <c r="A31" s="136"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="141" t="s">
+        <v>98</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="158">
+      <c r="E31" s="144">
         <v>0</v>
       </c>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="H31" s="155"/>
-      <c r="I31" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="J31" s="154"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="141"/>
+      <c r="I31" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="140"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1">
-      <c r="A32" s="150"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="160" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="158">
+      <c r="A32" s="136"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="147" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="144">
         <v>0</v>
       </c>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="160"/>
-      <c r="I32" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J32" s="162"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="146"/>
+      <c r="I32" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" ht="16" thickBot="1">
-      <c r="A33" s="150"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="160" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="158">
+      <c r="A33" s="136"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="147"/>
+      <c r="E33" s="144">
         <v>0</v>
       </c>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" s="160"/>
-      <c r="I33" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="162"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="146"/>
+      <c r="I33" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="148"/>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="150"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="158">
+      <c r="A34" s="136"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="147"/>
+      <c r="E34" s="144">
         <v>0</v>
       </c>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="160"/>
-      <c r="I34" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J34" s="162"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="146"/>
+      <c r="I34" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="148"/>
     </row>
     <row r="35" spans="1:10" ht="16" thickBot="1">
-      <c r="A35" s="150"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="158">
+      <c r="A35" s="136"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="147"/>
+      <c r="E35" s="144">
         <v>0</v>
       </c>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="160"/>
-      <c r="I35" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" s="162"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="146"/>
+      <c r="I35" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="148"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
-      <c r="A36" s="150"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="160" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="161"/>
-      <c r="E36" s="158">
+      <c r="A36" s="136"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="147"/>
+      <c r="E36" s="144">
         <v>0</v>
       </c>
-      <c r="F36" s="160"/>
-      <c r="G36" s="155" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="160"/>
-      <c r="I36" s="157" t="s">
-        <v>119</v>
-      </c>
-      <c r="J36" s="162"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="146"/>
+      <c r="I36" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="150"/>
-      <c r="B37" s="151"/>
-      <c r="C37" s="155" t="s">
-        <v>128</v>
+      <c r="A37" s="136"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="141" t="s">
+        <v>112</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="158">
+      <c r="E37" s="144">
         <v>0</v>
       </c>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="155"/>
-      <c r="I37" s="157" t="s">
+      <c r="F37" s="141"/>
+      <c r="G37" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="154"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="J37" s="140"/>
     </row>
     <row r="38" spans="1:10" ht="16" thickBot="1">
-      <c r="A38" s="150"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="155" t="s">
-        <v>130</v>
+      <c r="A38" s="136"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="141" t="s">
+        <v>114</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="158">
+        <v>115</v>
+      </c>
+      <c r="E38" s="144">
         <v>0</v>
       </c>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="J38" s="154"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="140"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="150"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="155"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="141"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="154"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="140"/>
     </row>
     <row r="40" spans="1:10" ht="16" thickBot="1">
       <c r="B40" s="39"/>
       <c r="C40" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="110"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="106"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="105"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="101"/>
     </row>
     <row r="41" spans="1:10" ht="16" thickBot="1">
       <c r="B41" s="39"/>
@@ -3506,59 +3669,59 @@
         <v>1</v>
       </c>
       <c r="E41" s="40">
-        <f>'Research data'!H12</f>
+        <f>'Research data'!H11</f>
         <v>13</v>
       </c>
       <c r="F41" s="38"/>
-      <c r="G41" s="84" t="s">
-        <v>55</v>
+      <c r="G41" s="80" t="s">
+        <v>49</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="105"/>
+      <c r="I41" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:10" ht="16" thickBot="1">
-      <c r="A42" s="150"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="155" t="s">
-        <v>132</v>
+      <c r="A42" s="136"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="141" t="s">
+        <v>116</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="158">
+      <c r="E42" s="144">
         <v>0</v>
       </c>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155" t="s">
-        <v>133</v>
-      </c>
-      <c r="H42" s="155"/>
-      <c r="I42" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="J42" s="154"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="141"/>
+      <c r="I42" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="J42" s="140"/>
     </row>
     <row r="43" spans="1:10" ht="16" thickBot="1">
-      <c r="B43" s="111"/>
-      <c r="C43" s="66" t="s">
+      <c r="B43" s="107"/>
+      <c r="C43" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E43" s="108">
         <v>0</v>
       </c>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="113" t="s">
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="105"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:10" ht="16" thickBot="1">
       <c r="B44" s="42"/>
@@ -3622,10 +3785,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3639,24 +3802,18 @@
     <col min="7" max="7" width="3.125" style="46" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="46" customWidth="1"/>
     <col min="9" max="9" width="2.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="46" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="46" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="46" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="46" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="46" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="46" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="46"/>
-    <col min="19" max="19" width="2.625" style="46" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="46"/>
-    <col min="21" max="21" width="1.75" style="46" customWidth="1"/>
-    <col min="22" max="22" width="75" style="46" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="46"/>
+    <col min="10" max="10" width="2.125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="46"/>
+    <col min="12" max="12" width="2.625" style="46" customWidth="1"/>
+    <col min="13" max="14" width="10.625" style="46"/>
+    <col min="15" max="15" width="13.875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.75" style="46" customWidth="1"/>
+    <col min="17" max="17" width="75" style="46" customWidth="1"/>
+    <col min="18" max="16384" width="10.625" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="16" thickBot="1"/>
-    <row r="3" spans="1:22">
+    <row r="2" spans="1:17" ht="16" thickBot="1"/>
+    <row r="3" spans="1:17">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3666,78 +3823,57 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:22" s="22" customFormat="1">
+    </row>
+    <row r="4" spans="1:17" s="22" customFormat="1">
       <c r="B4" s="21"/>
-      <c r="C4" s="100" t="s">
-        <v>73</v>
+      <c r="C4" s="96" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="18" customHeight="1">
+      <c r="G4" s="96"/>
+      <c r="H4" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="96"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1">
       <c r="B5" s="49"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="56"/>
-      <c r="V5" s="65"/>
-    </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="121"/>
-      <c r="B6" s="122"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="Q5" s="62"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3745,289 +3881,232 @@
       <c r="G6" s="31"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="121"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="63"/>
-    </row>
-    <row r="7" spans="1:22" ht="16" thickBot="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="127"/>
-      <c r="H7" s="128">
-        <f>T7</f>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="61"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" thickBot="1">
+      <c r="A7" s="115"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120">
+        <f>M7</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="121"/>
-      <c r="R7" s="128">
+      <c r="I7" s="121"/>
+      <c r="K7" s="120">
         <f>Notes!E11</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="S7" s="130"/>
-      <c r="T7" s="128">
+      <c r="L7" s="122"/>
+      <c r="M7" s="120">
         <f>Notes!E72</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="U7" s="130"/>
-      <c r="V7" s="141" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16" thickBot="1">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="127"/>
-      <c r="H8" s="146">
-        <f>AVERAGE(J8,L8,N8,P8)</f>
-        <v>20.175000000000001</v>
-      </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="120">
-        <v>16</v>
-      </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="144">
-        <v>30</v>
-      </c>
-      <c r="M8" s="123"/>
-      <c r="N8" s="145">
-        <v>16</v>
-      </c>
-      <c r="O8" s="121"/>
-      <c r="P8" s="120">
-        <v>18.7</v>
-      </c>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="141"/>
-    </row>
-    <row r="9" spans="1:22" ht="16" thickBot="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="143" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128">
-        <f>Notes!E91/Notes!E92</f>
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="50"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="141"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="131" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16" thickBot="1">
+      <c r="A8" s="115"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="119"/>
+      <c r="H8" s="169">
+        <f>O8</f>
+        <v>100</v>
+      </c>
+      <c r="I8" s="121"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="169">
+        <f>Notes!D120</f>
+        <v>100</v>
+      </c>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="170" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16" thickBot="1">
+      <c r="A9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="153" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120">
+        <f>N9</f>
+        <v>0.85</v>
+      </c>
+      <c r="I9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="120">
+        <f>Notes!E94</f>
+        <v>0.85</v>
+      </c>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="131"/>
+    </row>
+    <row r="10" spans="1:17" ht="16" thickBot="1">
       <c r="B10" s="49"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="56"/>
-      <c r="V10" s="65"/>
-    </row>
-    <row r="11" spans="1:22" ht="16" thickBot="1">
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="61"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" thickBot="1">
       <c r="B11" s="49"/>
-      <c r="C11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="C11" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="57">
+        <f>K11</f>
+        <v>13</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="K11" s="120">
+        <f>Notes!E22</f>
+        <v>13</v>
+      </c>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="63"/>
-    </row>
-    <row r="12" spans="1:22" ht="16" thickBot="1">
+      <c r="P11" s="50"/>
+      <c r="Q11" s="66"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="B12" s="49"/>
-      <c r="C12" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="59">
-        <f>R12</f>
-        <v>13</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="64"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
       <c r="O12" s="50"/>
-      <c r="R12" s="128">
-        <f>Notes!E22</f>
-        <v>13</v>
-      </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="69"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="P12" s="50"/>
+      <c r="Q12" s="52"/>
+    </row>
+    <row r="13" spans="1:17" ht="16" thickBot="1">
       <c r="B13" s="49"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="31"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="53"/>
-    </row>
-    <row r="14" spans="1:22" ht="16" thickBot="1">
+      <c r="P13" s="50"/>
+      <c r="Q13" s="62"/>
+    </row>
+    <row r="14" spans="1:17" ht="16" thickBot="1">
       <c r="B14" s="49"/>
-      <c r="C14" s="12" t="s">
-        <v>74</v>
+      <c r="C14" s="100" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="11"/>
+      <c r="F14" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="54">
+        <v>0</v>
+      </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="65"/>
-    </row>
-    <row r="15" spans="1:22" ht="16" thickBot="1">
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="65"/>
+    </row>
+    <row r="15" spans="1:17" ht="16" thickBot="1">
       <c r="B15" s="49"/>
-      <c r="C15" s="104" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="55">
+      <c r="C15" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="59">
         <v>0</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="68"/>
-    </row>
-    <row r="16" spans="1:22" ht="16" thickBot="1">
-      <c r="B16" s="49"/>
-      <c r="C16" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="101"/>
-      <c r="H16" s="61">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="69"/>
+      <c r="I15" s="60"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4045,40 +4124,40 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="72" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="72" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="72" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="72" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="78" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="72"/>
+    <col min="1" max="1" width="3.625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="4.125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="69" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="76"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
@@ -4088,21 +4167,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="71"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="76"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="81"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -4116,20 +4195,20 @@
         <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="76"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4140,240 +4219,189 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="76"/>
+      <c r="B7" s="72"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="76"/>
-      <c r="C8" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="133" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="133" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="124">
         <v>2013</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="124">
         <v>2012</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="125">
         <v>42326</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="72"/>
+      <c r="C9" s="150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="72"/>
+      <c r="C10" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="127">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="127">
+        <v>2014</v>
+      </c>
+      <c r="H10" s="130">
+        <v>42326</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="129" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="72"/>
+      <c r="C11" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="133" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="76"/>
-      <c r="C9" s="164" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="76"/>
-      <c r="C10" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="133" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="137">
-        <v>2014</v>
-      </c>
-      <c r="G10" s="137">
-        <v>2014</v>
-      </c>
-      <c r="H10" s="140">
-        <v>42326</v>
-      </c>
-      <c r="I10" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="139" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="76"/>
+      <c r="D11" s="152" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="69">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="69">
+        <v>2013</v>
+      </c>
+      <c r="H11" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="152" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="76"/>
-      <c r="C12" s="82"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="180" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="168" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="68">
+        <v>2016</v>
+      </c>
+      <c r="G12" s="68">
+        <v>2016</v>
+      </c>
+      <c r="H12" s="181">
+        <v>42606</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="76"/>
-      <c r="C13" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="71">
-        <v>2015</v>
-      </c>
-      <c r="G13" s="71">
-        <v>2015</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="51" t="s">
-        <v>83</v>
-      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="76"/>
-      <c r="C14" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="71">
-        <v>2015</v>
-      </c>
-      <c r="G14" s="71">
-        <v>2015</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72" t="s">
-        <v>46</v>
-      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="76"/>
-      <c r="C15" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="71">
-        <v>2015</v>
-      </c>
-      <c r="G15" s="71">
-        <v>2015</v>
-      </c>
-      <c r="H15" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71" t="s">
-        <v>45</v>
-      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="79"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="76"/>
-      <c r="C16" s="165" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="118" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="71">
-        <v>2015</v>
-      </c>
-      <c r="G16" s="71">
-        <v>2015</v>
-      </c>
-      <c r="H16" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72" t="s">
-        <v>86</v>
-      </c>
+      <c r="B16" s="72"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="B17" s="76"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="76"/>
-      <c r="C18" s="83"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="71"/>
+      <c r="B18" s="72"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="B19" s="76"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="113"/>
+      <c r="H19" s="114"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="76"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="B20" s="72"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="76"/>
+      <c r="B21" s="72"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="B22" s="76"/>
-      <c r="C22" s="118"/>
-      <c r="H22" s="119"/>
+      <c r="B22" s="72"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="B23" s="76"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="B24" s="76"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="76"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="76"/>
+      <c r="B24" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4391,670 +4419,652 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="72" customWidth="1"/>
-    <col min="4" max="4" width="3.375" style="72" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="72" customWidth="1"/>
-    <col min="7" max="16384" width="10.625" style="72"/>
+    <col min="1" max="1" width="3.375" style="157" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="157" customWidth="1"/>
+    <col min="3" max="3" width="22" style="157" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="157" customWidth="1"/>
+    <col min="5" max="5" width="12" style="157" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
+    <col min="7" max="7" width="13" style="157" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="157" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="157"/>
+    <col min="10" max="10" width="19.875" style="157" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="22"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="76"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="76"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="76"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="76"/>
-      <c r="C7" s="121" t="s">
-        <v>91</v>
+      <c r="B7" s="164"/>
+      <c r="C7" s="157" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="76"/>
+      <c r="B8" s="164"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="76"/>
+      <c r="B9" s="164"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="76"/>
-      <c r="C10" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121">
+      <c r="B10" s="164"/>
+      <c r="C10" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="157">
         <v>0.7</v>
       </c>
-      <c r="F10" s="121" t="s">
-        <v>90</v>
+      <c r="F10" s="157" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="76"/>
-      <c r="C11" s="121"/>
-      <c r="E11" s="121">
+      <c r="B11" s="164"/>
+      <c r="E11" s="157">
         <f>1/E10</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F11" s="121" t="s">
-        <v>87</v>
+      <c r="F11" s="157" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="76"/>
+      <c r="B12" s="164"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="76"/>
+      <c r="B13" s="164"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="76"/>
+      <c r="B14" s="164"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="76"/>
+      <c r="B15" s="164"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="76"/>
+      <c r="B16" s="164"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="76"/>
+      <c r="B17" s="164"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="76"/>
+      <c r="B18" s="164"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="76"/>
+      <c r="B19" s="164"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="76"/>
+      <c r="B20" s="164"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="76"/>
-      <c r="C21" s="150" t="s">
-        <v>135</v>
+      <c r="B21" s="164"/>
+      <c r="C21" s="157" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="76"/>
-      <c r="E22" s="72">
+      <c r="B22" s="164"/>
+      <c r="E22" s="157">
         <v>13</v>
       </c>
-      <c r="F22" s="150" t="s">
-        <v>134</v>
+      <c r="F22" s="157" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="76"/>
+      <c r="B23" s="164"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="76"/>
+      <c r="B24" s="164"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="76"/>
+      <c r="B25" s="164"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="76"/>
+      <c r="B26" s="164"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="76"/>
+      <c r="B27" s="164"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="76"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="164"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="76"/>
+      <c r="B29" s="164"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="76"/>
+      <c r="B30" s="164"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="76"/>
+      <c r="B31" s="164"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="76"/>
+      <c r="B32" s="164"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="76"/>
+      <c r="B33" s="164"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="76"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="76"/>
+      <c r="B34" s="164"/>
+    </row>
+    <row r="35" spans="2:3" s="163" customFormat="1">
+      <c r="B35" s="166"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="76"/>
+      <c r="B36" s="164"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="76"/>
+      <c r="B37" s="164"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="76"/>
+      <c r="B38" s="164"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="76"/>
-      <c r="C39" s="136" t="s">
-        <v>95</v>
+      <c r="B39" s="164"/>
+      <c r="C39" s="157" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="76"/>
+      <c r="B40" s="164"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="76"/>
-      <c r="C41" s="136" t="s">
-        <v>96</v>
+      <c r="B41" s="164"/>
+      <c r="C41" s="157" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="76"/>
+      <c r="B42" s="164"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="76"/>
+      <c r="B43" s="164"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="76"/>
+      <c r="B44" s="164"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="76"/>
+      <c r="B45" s="164"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="76"/>
+      <c r="B46" s="164"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="76"/>
+      <c r="B47" s="164"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="76"/>
+      <c r="B48" s="164"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="76"/>
+      <c r="B49" s="164"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="76"/>
+      <c r="B50" s="164"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="76"/>
+      <c r="B51" s="164"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="76"/>
+      <c r="B52" s="164"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="76"/>
+      <c r="B53" s="164"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="76"/>
+      <c r="B54" s="164"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="76"/>
+      <c r="B55" s="164"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="76"/>
+      <c r="B56" s="164"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="76"/>
+      <c r="B57" s="164"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="76"/>
+      <c r="B58" s="164"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="76"/>
+      <c r="B59" s="164"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="76"/>
+      <c r="B60" s="164"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="76"/>
+      <c r="B61" s="164"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="76"/>
+      <c r="B62" s="164"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="76"/>
+      <c r="B63" s="164"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="76"/>
+      <c r="B64" s="164"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="76"/>
+      <c r="B65" s="164"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="76"/>
+      <c r="B66" s="164"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="76"/>
+      <c r="B67" s="164"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="76"/>
+      <c r="B68" s="164"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="76"/>
+      <c r="B69" s="164"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="76"/>
+      <c r="B70" s="164"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="76"/>
-      <c r="E71" s="72">
+      <c r="B71" s="164"/>
+      <c r="E71" s="157">
         <v>0.65</v>
       </c>
-      <c r="F71" s="136" t="s">
-        <v>90</v>
+      <c r="F71" s="157" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="76"/>
-      <c r="E72" s="72">
+      <c r="B72" s="164"/>
+      <c r="E72" s="157">
         <f>1/E71</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="F72" s="136" t="s">
-        <v>87</v>
+      <c r="F72" s="157" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="76"/>
+      <c r="B73" s="164"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="76"/>
+      <c r="B74" s="164"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="76"/>
+      <c r="B75" s="164"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="76"/>
+      <c r="B76" s="164"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="76"/>
+      <c r="B77" s="164"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="76"/>
+      <c r="B78" s="164"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="76"/>
+      <c r="B79" s="164"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="76"/>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="76"/>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="76"/>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="76"/>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="76"/>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="76"/>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="76"/>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="76"/>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="76"/>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="76"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="76"/>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="76"/>
-      <c r="C91" s="147" t="s">
-        <v>108</v>
-      </c>
-      <c r="D91" s="147"/>
-      <c r="E91" s="72">
-        <v>3.6</v>
-      </c>
-      <c r="F91" s="147" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="76"/>
-      <c r="E92" s="72">
-        <v>81</v>
-      </c>
-      <c r="F92" s="147" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="76"/>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="76"/>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="76"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="76"/>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" s="76"/>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" s="76"/>
-      <c r="H98" s="147" t="s">
-        <v>107</v>
-      </c>
-      <c r="J98" s="72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" s="76"/>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" s="76"/>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" s="76"/>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" s="76"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="76"/>
-    </row>
-    <row r="104" spans="2:10">
-      <c r="B104" s="76"/>
-    </row>
-    <row r="105" spans="2:10">
-      <c r="B105" s="76"/>
-    </row>
-    <row r="106" spans="2:10">
-      <c r="B106" s="76"/>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="B107" s="76"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="76"/>
-    </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="76"/>
-    </row>
-    <row r="110" spans="2:10">
-      <c r="B110" s="76"/>
-    </row>
-    <row r="111" spans="2:10">
-      <c r="B111" s="76"/>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="B112" s="76"/>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="B113" s="76"/>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="B114" s="76"/>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="131"/>
-      <c r="B115" s="111"/>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="131"/>
-      <c r="B116" s="111"/>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="131"/>
-      <c r="B117" s="111"/>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="131"/>
-      <c r="B118" s="111"/>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="131"/>
-      <c r="B119" s="111"/>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="131"/>
-      <c r="B120" s="111"/>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="131"/>
-      <c r="B121" s="111"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="131"/>
-      <c r="B122" s="111"/>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="131"/>
-      <c r="B123" s="111"/>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="131"/>
-      <c r="B124" s="111"/>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="131"/>
-      <c r="B125" s="111"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="131"/>
-      <c r="B126" s="111"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="131"/>
-      <c r="B127" s="111"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="131"/>
-      <c r="B128" s="111"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="131"/>
-      <c r="B129" s="111"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="131"/>
-      <c r="B130" s="111"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="131"/>
-      <c r="B131" s="111"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="131"/>
-      <c r="B132" s="111"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="131"/>
-      <c r="B133" s="111"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="131"/>
-      <c r="B134" s="111"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="131"/>
-      <c r="B135" s="111"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="131"/>
-      <c r="B136" s="111"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="131"/>
-      <c r="B137" s="111"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="131"/>
-      <c r="B138" s="111"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="131"/>
-      <c r="B139" s="111"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="131"/>
-      <c r="B140" s="111"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="131"/>
-      <c r="B141" s="111"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="131"/>
-      <c r="B142" s="111"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="131"/>
-      <c r="B143" s="111"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="131"/>
-      <c r="B144" s="111"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="131"/>
-      <c r="B145" s="111"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="131"/>
-      <c r="B146" s="111"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="131"/>
-      <c r="B147" s="111"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="131"/>
-      <c r="B148" s="111"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="131"/>
-      <c r="B149" s="111"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="131"/>
-      <c r="B150" s="111"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="131"/>
-      <c r="B151" s="111"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="131"/>
-      <c r="B152" s="111"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="131"/>
-      <c r="B153" s="111"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="131"/>
-      <c r="B154" s="111"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="131"/>
-      <c r="B155" s="111"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="131"/>
-      <c r="B156" s="111"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="131"/>
-      <c r="B157" s="111"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="131"/>
-      <c r="B158" s="111"/>
+      <c r="B80" s="164"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="164"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="164"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="164"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="164"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="164"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="164"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="164"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="164"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="164"/>
+    </row>
+    <row r="90" spans="2:7" s="163" customFormat="1">
+      <c r="B90" s="166"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="164"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="164"/>
+      <c r="C92" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="157">
+        <v>85</v>
+      </c>
+      <c r="F92" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="G92" s="157" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="164"/>
+      <c r="C93" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="157">
+        <v>1</v>
+      </c>
+      <c r="F93" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93" s="157" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="164"/>
+      <c r="E94" s="157">
+        <f>E93/100*E92</f>
+        <v>0.85</v>
+      </c>
+      <c r="F94" s="157" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" s="157" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="164"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="164"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="164"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="164"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="164"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="164"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="164"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="164"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="164"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="164"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="164"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="164"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="164"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="164"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="164"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="164"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="164"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="164"/>
+    </row>
+    <row r="113" spans="1:5" s="163" customFormat="1">
+      <c r="A113" s="155"/>
+      <c r="B113" s="156"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="164"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="164"/>
+      <c r="C115" s="157" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" s="164"/>
+      <c r="C116" s="157" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="164"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="164"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="164"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="164"/>
+      <c r="C120" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D120" s="157">
+        <v>100</v>
+      </c>
+      <c r="E120" s="157" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" s="164"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" s="164"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" s="164"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" s="164"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" s="164"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="164"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="164"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="164"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="164"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="164"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="164"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="164"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="164"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="164"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="164"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="164"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="164"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="164"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="164"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="164"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="164"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="164"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="164"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="164"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="164"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="164"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="164"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="164"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="164"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="164"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="164"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="164"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="164"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="164"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="164"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="164"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -257,9 +265,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -517,6 +522,10 @@
   <si>
     <t>Tesla Model S P100D</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +539,7 @@
     <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -725,11 +734,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1491,7 +1495,7 @@
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1521,7 +1525,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1552,10 +1556,10 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,16 +1587,16 @@
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1608,7 +1612,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1625,51 +1629,24 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1677,6 +1654,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2027,77 +2031,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>431800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3759200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2331,7 +2265,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2772,32 +2706,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="19"/>
+    <col min="1" max="1" width="3.42578125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1">
+    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -2806,7 +2740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>50</v>
@@ -2815,7 +2749,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -2824,29 +2758,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="81" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="82"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="83"/>
       <c r="C10" s="84"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="83" t="s">
         <v>53</v>
@@ -2855,33 +2789,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="83"/>
       <c r="C12" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="83"/>
       <c r="C13" s="86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="83"/>
       <c r="C14" s="84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="83"/>
       <c r="C15" s="84"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="83" t="s">
         <v>58</v>
@@ -2890,49 +2824,49 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="83"/>
       <c r="C17" s="88" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="83"/>
       <c r="C18" s="89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="83"/>
       <c r="C19" s="90" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="91"/>
       <c r="C20" s="92" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="91"/>
       <c r="C21" s="93" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="91"/>
       <c r="C22" s="94" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="91"/>
       <c r="C23" s="95" t="s">
         <v>66</v>
@@ -2944,84 +2878,79 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
     <col min="10" max="10" width="5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="171" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="174" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="182"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="35"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3032,7 +2961,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="2:11" s="22" customFormat="1">
+    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="102"/>
       <c r="C8" s="15" t="s">
         <v>21</v>
@@ -3053,7 +2982,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1">
+    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
@@ -3064,7 +2993,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
         <v>71</v>
@@ -3077,13 +3006,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="67" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="33">
         <f>'Research data'!H7</f>
@@ -3091,21 +3020,21 @@
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="126" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>90</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="E12" s="135">
         <f>'Research data'!H8/1000</f>
@@ -3114,18 +3043,18 @@
       <c r="F12" s="38"/>
       <c r="G12" s="126"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="182" t="s">
-        <v>138</v>
+      <c r="I12" s="173" t="s">
+        <v>137</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:11" s="22" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="134">
         <f>'Research data'!H9/1000</f>
@@ -3140,7 +3069,7 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="38" t="s">
         <v>23</v>
@@ -3160,7 +3089,7 @@
       <c r="J14" s="101"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="38" t="s">
         <v>24</v>
@@ -3180,7 +3109,7 @@
       <c r="J15" s="101"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="38" t="s">
         <v>25</v>
@@ -3200,7 +3129,7 @@
       <c r="J16" s="101"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="16" thickBot="1">
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="38" t="s">
         <v>43</v>
@@ -3215,12 +3144,12 @@
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="101"/>
       <c r="K17" s="35"/>
     </row>
-    <row r="18" spans="1:11" ht="16" thickBot="1">
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="38" t="s">
         <v>26</v>
@@ -3240,7 +3169,7 @@
       <c r="J18" s="101"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1">
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="38" t="s">
         <v>27</v>
@@ -3260,13 +3189,13 @@
       <c r="J19" s="101"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="167" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="111">
         <v>3.7000000000000002E-3</v>
@@ -3279,7 +3208,7 @@
       </c>
       <c r="J20" s="101"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="38" t="s">
         <v>45</v>
@@ -3298,7 +3227,7 @@
       </c>
       <c r="J21" s="101"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="167" t="s">
         <v>46</v>
@@ -3317,7 +3246,7 @@
       </c>
       <c r="J22" s="101"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="38" t="s">
         <v>28</v>
@@ -3338,7 +3267,7 @@
       </c>
       <c r="J23" s="101"/>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="38" t="s">
         <v>33</v>
@@ -3359,7 +3288,7 @@
       </c>
       <c r="J24" s="101"/>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="38" t="s">
         <v>29</v>
@@ -3380,7 +3309,7 @@
       </c>
       <c r="J25" s="101"/>
     </row>
-    <row r="26" spans="1:11" ht="16" thickBot="1">
+    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="38" t="s">
         <v>30</v>
@@ -3401,7 +3330,7 @@
       </c>
       <c r="J26" s="101"/>
     </row>
-    <row r="27" spans="1:11" ht="16" thickBot="1">
+    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
       <c r="C27" s="38" t="s">
         <v>31</v>
@@ -3422,7 +3351,7 @@
       </c>
       <c r="J27" s="101"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="104"/>
@@ -3433,11 +3362,11 @@
       <c r="I28" s="35"/>
       <c r="J28" s="101"/>
     </row>
-    <row r="29" spans="1:11" ht="16" thickBot="1">
+    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="136"/>
       <c r="B29" s="137"/>
       <c r="C29" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="104"/>
       <c r="E29" s="138"/>
@@ -3447,11 +3376,11 @@
       <c r="I29" s="139"/>
       <c r="J29" s="140"/>
     </row>
-    <row r="30" spans="1:11" ht="16" thickBot="1">
+    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="136"/>
       <c r="B30" s="137"/>
       <c r="C30" s="141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>22</v>
@@ -3465,15 +3394,15 @@
       </c>
       <c r="H30" s="141"/>
       <c r="I30" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J30" s="140"/>
     </row>
-    <row r="31" spans="1:11" ht="16" thickBot="1">
+    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="136"/>
       <c r="B31" s="137"/>
       <c r="C31" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>34</v>
@@ -3483,41 +3412,41 @@
       </c>
       <c r="F31" s="141"/>
       <c r="G31" s="141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H31" s="141"/>
       <c r="I31" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="140"/>
     </row>
-    <row r="32" spans="1:11" ht="16" thickBot="1">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="136"/>
       <c r="B32" s="145"/>
       <c r="C32" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="147" t="s">
         <v>100</v>
-      </c>
-      <c r="D32" s="147" t="s">
-        <v>101</v>
       </c>
       <c r="E32" s="144">
         <v>0</v>
       </c>
       <c r="F32" s="146"/>
       <c r="G32" s="146" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H32" s="146"/>
       <c r="I32" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J32" s="148"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="136"/>
       <c r="B33" s="145"/>
       <c r="C33" s="146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="147"/>
       <c r="E33" s="144">
@@ -3525,19 +3454,19 @@
       </c>
       <c r="F33" s="146"/>
       <c r="G33" s="146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="146"/>
       <c r="I33" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="148"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="136"/>
       <c r="B34" s="145"/>
       <c r="C34" s="146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="147"/>
       <c r="E34" s="144">
@@ -3545,19 +3474,19 @@
       </c>
       <c r="F34" s="146"/>
       <c r="G34" s="146" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="146"/>
       <c r="I34" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="148"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="136"/>
       <c r="B35" s="145"/>
       <c r="C35" s="146" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="147"/>
       <c r="E35" s="144">
@@ -3565,19 +3494,19 @@
       </c>
       <c r="F35" s="146"/>
       <c r="G35" s="146" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="146"/>
       <c r="I35" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="148"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="136"/>
       <c r="B36" s="145"/>
       <c r="C36" s="146" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="147"/>
       <c r="E36" s="144">
@@ -3585,19 +3514,19 @@
       </c>
       <c r="F36" s="146"/>
       <c r="G36" s="141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="146"/>
       <c r="I36" s="143" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J36" s="148"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="136"/>
       <c r="B37" s="137"/>
       <c r="C37" s="141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>2</v>
@@ -3607,22 +3536,22 @@
       </c>
       <c r="F37" s="141"/>
       <c r="G37" s="141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H37" s="141"/>
       <c r="I37" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J37" s="140"/>
     </row>
-    <row r="38" spans="1:10" ht="16" thickBot="1">
+    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="136"/>
       <c r="B38" s="137"/>
       <c r="C38" s="141" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="E38" s="144">
         <v>0</v>
@@ -3631,11 +3560,11 @@
       <c r="G38" s="141"/>
       <c r="H38" s="141"/>
       <c r="I38" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" s="140"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="136"/>
       <c r="B39" s="137"/>
       <c r="C39" s="141"/>
@@ -3647,7 +3576,7 @@
       <c r="I39" s="139"/>
       <c r="J39" s="140"/>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
+    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="39"/>
       <c r="C40" s="13" t="s">
         <v>6</v>
@@ -3660,7 +3589,7 @@
       <c r="I40" s="68"/>
       <c r="J40" s="101"/>
     </row>
-    <row r="41" spans="1:10" ht="16" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="39"/>
       <c r="C41" s="38" t="s">
         <v>32</v>
@@ -3682,11 +3611,11 @@
       </c>
       <c r="J41" s="101"/>
     </row>
-    <row r="42" spans="1:10" ht="16" thickBot="1">
+    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="136"/>
       <c r="B42" s="137"/>
       <c r="C42" s="141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>1</v>
@@ -3696,15 +3625,15 @@
       </c>
       <c r="F42" s="141"/>
       <c r="G42" s="141" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H42" s="141"/>
       <c r="I42" s="143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J42" s="140"/>
     </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1">
+    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="107"/>
       <c r="C43" s="63" t="s">
         <v>24</v>
@@ -3723,7 +3652,7 @@
       </c>
       <c r="J43" s="101"/>
     </row>
-    <row r="44" spans="1:10" ht="16" thickBot="1">
+    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -3740,43 +3669,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>431800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3759200</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3791,29 +3683,29 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="46"/>
-    <col min="12" max="12" width="2.625" style="46" customWidth="1"/>
-    <col min="13" max="14" width="10.625" style="46"/>
-    <col min="15" max="15" width="13.875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.75" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="46"/>
+    <col min="12" max="12" width="2.5703125" style="46" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="46"/>
+    <col min="15" max="15" width="13.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="46" customWidth="1"/>
     <col min="17" max="17" width="75" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="46"/>
+    <col min="18" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="16" thickBot="1"/>
-    <row r="3" spans="1:17">
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3824,7 +3716,7 @@
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
     </row>
-    <row r="4" spans="1:17" s="22" customFormat="1">
+    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="96" t="s">
         <v>67</v>
@@ -3841,24 +3733,24 @@
       <c r="I4" s="96"/>
       <c r="J4" s="15"/>
       <c r="K4" s="96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="96"/>
       <c r="M4" s="96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="96" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="96" t="s">
         <v>134</v>
-      </c>
-      <c r="O4" s="96" t="s">
-        <v>135</v>
       </c>
       <c r="P4" s="96"/>
       <c r="Q4" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -3869,7 +3761,7 @@
       <c r="I5" s="53"/>
       <c r="Q5" s="62"/>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="115"/>
       <c r="B6" s="116"/>
       <c r="C6" s="12" t="s">
@@ -3889,7 +3781,7 @@
       <c r="P6" s="50"/>
       <c r="Q6" s="61"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="115"/>
       <c r="B7" s="116"/>
       <c r="C7" s="117" t="s">
@@ -3898,7 +3790,7 @@
       <c r="D7" s="117"/>
       <c r="E7" s="117"/>
       <c r="F7" s="118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="119"/>
       <c r="H7" s="120">
@@ -3919,19 +3811,19 @@
       <c r="O7" s="122"/>
       <c r="P7" s="122"/>
       <c r="Q7" s="131" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="115"/>
       <c r="B8" s="116"/>
       <c r="C8" s="117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="117"/>
       <c r="E8" s="117"/>
       <c r="F8" s="133" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="119"/>
       <c r="H8" s="169">
@@ -3949,19 +3841,19 @@
       </c>
       <c r="P8" s="122"/>
       <c r="Q8" s="170" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="115"/>
       <c r="B9" s="116"/>
       <c r="C9" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="117"/>
       <c r="F9" s="153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="119"/>
       <c r="H9" s="120">
@@ -3980,7 +3872,7 @@
       <c r="P9" s="122"/>
       <c r="Q9" s="131"/>
     </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1">
+    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
@@ -3999,7 +3891,7 @@
       <c r="P10" s="50"/>
       <c r="Q10" s="61"/>
     </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1">
+    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49"/>
       <c r="C11" s="56" t="s">
         <v>4</v>
@@ -4026,7 +3918,7 @@
       <c r="P11" s="50"/>
       <c r="Q11" s="66"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -4043,7 +3935,7 @@
       <c r="P12" s="50"/>
       <c r="Q12" s="52"/>
     </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1">
+    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>68</v>
@@ -4062,7 +3954,7 @@
       <c r="P13" s="50"/>
       <c r="Q13" s="62"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickBot="1">
+    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49"/>
       <c r="C14" s="100" t="s">
         <v>70</v>
@@ -4085,7 +3977,7 @@
       <c r="P14" s="53"/>
       <c r="Q14" s="65"/>
     </row>
-    <row r="15" spans="1:17" ht="16" thickBot="1">
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="100" t="s">
         <v>69</v>
@@ -4111,11 +4003,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4130,22 +4017,22 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="69" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="74" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="74" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="69"/>
+    <col min="1" max="1" width="3.5703125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="69" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="74" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -4156,7 +4043,7 @@
       <c r="I2" s="75"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="72"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
@@ -4169,7 +4056,7 @@
       <c r="I3" s="16"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4180,7 +4067,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="77"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
@@ -4195,19 +4082,19 @@
         <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="72"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4218,16 +4105,16 @@
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="72"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="72"/>
       <c r="C8" s="123" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="124" t="s">
         <v>8</v>
@@ -4242,25 +4129,25 @@
         <v>42326</v>
       </c>
       <c r="I8" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="124" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
       <c r="C9" s="150" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="72"/>
       <c r="C10" s="123" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="127" t="s">
         <v>8</v>
@@ -4275,22 +4162,22 @@
         <v>42326</v>
       </c>
       <c r="I10" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="129" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="72"/>
       <c r="C11" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="152" t="s">
         <v>123</v>
-      </c>
-      <c r="E11" s="152" t="s">
-        <v>124</v>
       </c>
       <c r="F11" s="69">
         <v>2013</v>
@@ -4299,22 +4186,22 @@
         <v>2013</v>
       </c>
       <c r="H11" s="154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J11" s="152" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="72"/>
-      <c r="C12" s="180" t="s">
-        <v>90</v>
+      <c r="C12" s="171" t="s">
+        <v>89</v>
       </c>
       <c r="D12" s="168" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="168" t="s">
         <v>132</v>
-      </c>
-      <c r="E12" s="168" t="s">
-        <v>133</v>
       </c>
       <c r="F12" s="68">
         <v>2016</v>
@@ -4322,15 +4209,15 @@
       <c r="G12" s="68">
         <v>2016</v>
       </c>
-      <c r="H12" s="181">
+      <c r="H12" s="172">
         <v>42606</v>
       </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="72"/>
       <c r="C13" s="151"/>
       <c r="D13" s="113"/>
@@ -4340,7 +4227,7 @@
       <c r="H13" s="112"/>
       <c r="I13" s="68"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="72"/>
       <c r="C14" s="78"/>
       <c r="D14" s="68"/>
@@ -4350,7 +4237,7 @@
       <c r="H14" s="73"/>
       <c r="I14" s="68"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="72"/>
       <c r="C15" s="79"/>
       <c r="F15" s="68"/>
@@ -4358,7 +4245,7 @@
       <c r="H15" s="112"/>
       <c r="I15" s="68"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="72"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -4368,7 +4255,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="72"/>
       <c r="C17" s="113"/>
       <c r="D17" s="68"/>
@@ -4379,38 +4266,33 @@
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="72"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="72"/>
       <c r="C19" s="113"/>
       <c r="H19" s="114"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="72"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="72"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="127"/>
       <c r="B23" s="128"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4425,23 +4307,22 @@
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="157" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="157" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="157" customWidth="1"/>
     <col min="3" max="3" width="22" style="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="157" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="157" customWidth="1"/>
     <col min="5" max="5" width="12" style="157" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="157" customWidth="1"/>
     <col min="7" max="7" width="13" style="157" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="157" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="157"/>
-    <col min="10" max="10" width="19.875" style="157" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="157"/>
+    <col min="8" max="8" width="15.7109375" style="157" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="157"/>
+    <col min="10" max="10" width="19.85546875" style="157" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="157"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1"/>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="158"/>
       <c r="C2" s="159"/>
       <c r="D2" s="159"/>
@@ -4455,7 +4336,7 @@
       <c r="L2" s="159"/>
       <c r="M2" s="159"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="160"/>
       <c r="B3" s="161"/>
       <c r="C3" s="162" t="s">
@@ -4474,7 +4355,7 @@
       <c r="L3" s="163"/>
       <c r="M3" s="163"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="164"/>
       <c r="C4" s="165"/>
       <c r="D4" s="165"/>
@@ -4488,7 +4369,7 @@
       <c r="L4" s="165"/>
       <c r="M4" s="165"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="164"/>
       <c r="C5" s="165"/>
       <c r="D5" s="165"/>
@@ -4502,7 +4383,7 @@
       <c r="L5" s="165"/>
       <c r="M5" s="165"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="164"/>
       <c r="C6" s="165"/>
       <c r="D6" s="165"/>
@@ -4516,327 +4397,327 @@
       <c r="L6" s="165"/>
       <c r="M6" s="165"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="164"/>
       <c r="C7" s="157" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="164"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="164"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="164"/>
       <c r="C10" s="157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="157">
         <v>0.7</v>
       </c>
       <c r="F10" s="157" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="164"/>
       <c r="E11" s="157">
         <f>1/E10</f>
         <v>1.4285714285714286</v>
       </c>
       <c r="F11" s="157" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="164"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="164"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="164"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="164"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="164"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="164"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="164"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="164"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="164"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="164"/>
       <c r="C21" s="157" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="164"/>
       <c r="E22" s="157">
         <v>13</v>
       </c>
       <c r="F22" s="157" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="164"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="164"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="164"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="164"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="164"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="164"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="164"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="164"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="164"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="164"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="164"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="164"/>
     </row>
-    <row r="35" spans="2:3" s="163" customFormat="1">
+    <row r="35" spans="2:3" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="166"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="164"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="164"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="164"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="164"/>
       <c r="C39" s="157" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="164"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="164"/>
       <c r="C41" s="157" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="164"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="164"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="164"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="164"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="164"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="164"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="164"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="164"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="164"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="164"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="164"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="164"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="164"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="164"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="164"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="164"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="164"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="164"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="164"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="164"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="164"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="164"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="164"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="164"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="164"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="164"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="164"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="164"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="164"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="164"/>
       <c r="E71" s="157">
         <v>0.65</v>
       </c>
       <c r="F71" s="157" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="164"/>
       <c r="E72" s="157">
         <f>1/E71</f>
         <v>1.5384615384615383</v>
       </c>
       <c r="F72" s="157" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="164"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="164"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="164"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="164"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="164"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="164"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="164"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="164"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="164"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="164"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="164"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="164"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="164"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="164"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="164"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="164"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="164"/>
     </row>
-    <row r="90" spans="2:7" s="163" customFormat="1">
+    <row r="90" spans="2:7" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="166"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="164"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="164"/>
       <c r="C92" s="157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E92" s="157">
         <v>85</v>
       </c>
       <c r="F92" s="157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" s="164"/>
       <c r="C93" s="157" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E93" s="157">
         <v>1</v>
@@ -4845,235 +4726,230 @@
         <v>2</v>
       </c>
       <c r="G93" s="157" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="164"/>
       <c r="E94" s="157">
         <f>E93/100*E92</f>
         <v>0.85</v>
       </c>
       <c r="F94" s="157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G94" s="157" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="164"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="164"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="164"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="164"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="164"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="164"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="164"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="164"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="164"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="164"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="164"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="164"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="164"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="164"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="164"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="164"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="164"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="164"/>
     </row>
-    <row r="113" spans="1:5" s="163" customFormat="1">
+    <row r="113" spans="1:5" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="155"/>
       <c r="B113" s="156"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B114" s="164"/>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="164"/>
       <c r="C115" s="157" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116" s="164"/>
       <c r="C116" s="157" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B117" s="164"/>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118" s="164"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119" s="164"/>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120" s="164"/>
       <c r="C120" s="157" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D120" s="157">
         <v>100</v>
       </c>
       <c r="E120" s="157" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B121" s="164"/>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="164"/>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123" s="164"/>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124" s="164"/>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B125" s="164"/>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126" s="164"/>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B127" s="164"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128" s="164"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B129" s="164"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B130" s="164"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B131" s="164"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B132" s="164"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B133" s="164"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B134" s="164"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B135" s="164"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B136" s="164"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B137" s="164"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B138" s="164"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B139" s="164"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B140" s="164"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B141" s="164"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B142" s="164"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B143" s="164"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B144" s="164"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="164"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="164"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="164"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="164"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="164"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="164"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="164"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="164"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="164"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B154" s="164"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B155" s="164"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B156" s="164"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16200" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -526,6 +526,48 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>output.passenger_kms</t>
+  </si>
+  <si>
+    <t>pkm/MJ</t>
+  </si>
+  <si>
+    <t>Vehicle kilometers cars</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80302NED&amp;D1=a&amp;D2=a&amp;D3=25&amp;HDR=T,G2&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Passenger kilometers cars</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83497ned&amp;D1=0&amp;D2=a&amp;D3=0&amp;D4=5&amp;HDR=T,G3&amp;STB=G1,G2&amp;VW=T</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km</t>
+  </si>
+  <si>
+    <t>mld passenger km</t>
+  </si>
+  <si>
+    <t>passenger km/vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km/MJ</t>
+  </si>
 </sst>
 </file>
 
@@ -539,12 +581,19 @@
     <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -712,6 +761,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -719,6 +769,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,6 +777,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,11 +785,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,22 +805,33 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1064,623 +1129,630 @@
   </borders>
   <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2233,8 +2305,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2259,6 +2331,196 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316173</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>158467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36350</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>4113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11403273" y="40607967"/>
+          <a:ext cx="11277177" cy="4366846"/>
+          <a:chOff x="9231573" y="32137067"/>
+          <a:chExt cx="12902777" cy="4417646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9231573" y="32137067"/>
+            <a:ext cx="12902777" cy="4417646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13195110" y="34022352"/>
+            <a:ext cx="1173708" cy="552735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11341100" y="45834300"/>
+          <a:ext cx="14605001" cy="4152900"/>
+          <a:chOff x="9702800" y="37896800"/>
+          <a:chExt cx="16776701" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9702800" y="37896800"/>
+            <a:ext cx="16776701" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13367223" y="40003862"/>
+            <a:ext cx="1654792" cy="368490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2708,10 +2970,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="19" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="19"/>
+    <col min="1" max="1" width="3.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="19" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
@@ -2888,23 +3150,23 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="34" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
     <col min="10" max="10" width="5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="11" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -3009,14 +3271,14 @@
     <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="67" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="E11" s="33">
         <f>'Research data'!H7</f>
-        <v>1.5384615384615383</v>
+        <v>2.0422269584645436</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="126" t="s">
@@ -3679,29 +3941,28 @@
   </sheetPr>
   <dimension ref="A2:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="46" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="46"/>
-    <col min="12" max="12" width="2.5703125" style="46" customWidth="1"/>
-    <col min="13" max="14" width="10.7109375" style="46"/>
-    <col min="15" max="15" width="13.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" style="46" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="46" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="46" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="46" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="46"/>
+    <col min="12" max="12" width="2.5" style="46" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="46"/>
+    <col min="15" max="15" width="13.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="46" customWidth="1"/>
     <col min="17" max="17" width="75" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="46"/>
+    <col min="18" max="16384" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3785,9 +4046,11 @@
       <c r="A7" s="115"/>
       <c r="B7" s="116"/>
       <c r="C7" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="117"/>
+        <v>139</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>140</v>
+      </c>
       <c r="E7" s="117"/>
       <c r="F7" s="118" t="s">
         <v>75</v>
@@ -3795,17 +4058,17 @@
       <c r="G7" s="119"/>
       <c r="H7" s="120">
         <f>M7</f>
-        <v>1.5384615384615383</v>
+        <v>2.0422269584645436</v>
       </c>
       <c r="I7" s="121"/>
       <c r="K7" s="120">
-        <f>Notes!E11</f>
-        <v>1.4285714285714286</v>
+        <f>Notes!E212</f>
+        <v>1.8963536042885052</v>
       </c>
       <c r="L7" s="122"/>
       <c r="M7" s="120">
-        <f>Notes!E72</f>
-        <v>1.5384615384615383</v>
+        <f>Notes!E210</f>
+        <v>2.0422269584645436</v>
       </c>
       <c r="N7" s="122"/>
       <c r="O7" s="122"/>
@@ -4011,24 +4274,24 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="69" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="69" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="74" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="74" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="69"/>
+    <col min="1" max="1" width="3.5" style="69" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="69" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4227,68 +4490,114 @@
       <c r="H13" s="112"/>
       <c r="I13" s="68"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="72"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="79"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="68"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="72"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
+    <row r="14" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="183" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="183">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="184"/>
+      <c r="J14" s="183" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+    </row>
+    <row r="16" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="183" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="183" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="183">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="184"/>
+      <c r="J16" s="183" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="72"/>
-      <c r="C17" s="113"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="68"/>
       <c r="E17" s="68"/>
       <c r="F17" s="68"/>
       <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="H17" s="73"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="72"/>
+      <c r="C18" s="79"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="72"/>
-      <c r="C19" s="113"/>
-      <c r="H19" s="114"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="72"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="72"/>
+      <c r="C22" s="113"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="127"/>
-      <c r="B23" s="128"/>
+      <c r="B23" s="72"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="72"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4301,24 +4610,24 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="157" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="157" customWidth="1"/>
     <col min="3" max="3" width="22" style="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="157" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="157" customWidth="1"/>
     <col min="5" max="5" width="12" style="157" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="157" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
     <col min="7" max="7" width="13" style="157" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="157" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="157"/>
-    <col min="10" max="10" width="19.85546875" style="157" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="157"/>
+    <col min="8" max="8" width="15.6640625" style="157" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="157"/>
+    <col min="10" max="10" width="19.83203125" style="157" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4947,6 +5256,213 @@
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B157" s="164"/>
     </row>
+    <row r="200" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="185"/>
+      <c r="C201" s="186" t="s">
+        <v>142</v>
+      </c>
+      <c r="D201" s="129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E201" s="187">
+        <v>105088.9</v>
+      </c>
+      <c r="F201" s="129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="185"/>
+      <c r="E202" s="129">
+        <f>E201*1000000</f>
+        <v>105088900000</v>
+      </c>
+      <c r="F202" s="129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="185"/>
+      <c r="D203" s="129" t="s">
+        <v>149</v>
+      </c>
+      <c r="E203" s="188">
+        <f>(97.3+42.2)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F203" s="129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="185"/>
+      <c r="E204" s="129">
+        <f>E203*1000000000</f>
+        <v>139500000000</v>
+      </c>
+      <c r="F204" s="129" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="185"/>
+    </row>
+    <row r="206" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="185"/>
+      <c r="E206" s="189">
+        <f>E204/E202</f>
+        <v>1.3274475230019536</v>
+      </c>
+      <c r="F206" s="129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="185"/>
+    </row>
+    <row r="208" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="185"/>
+    </row>
+    <row r="209" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="185"/>
+    </row>
+    <row r="210" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="185"/>
+      <c r="D210" s="129" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E210" s="129">
+        <f>E206*E72</f>
+        <v>2.0422269584645436</v>
+      </c>
+      <c r="F210" s="129" t="s">
+        <v>152</v>
+      </c>
+      <c r="G210" s="96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="185"/>
+    </row>
+    <row r="212" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="185"/>
+      <c r="D212" s="129" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E212" s="129">
+        <f>E206*E11</f>
+        <v>1.8963536042885052</v>
+      </c>
+      <c r="G212" s="96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="185"/>
+    </row>
+    <row r="214" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="185"/>
+    </row>
+    <row r="215" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="185"/>
+    </row>
+    <row r="216" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="185"/>
+    </row>
+    <row r="217" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="185"/>
+    </row>
+    <row r="218" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="185"/>
+    </row>
+    <row r="219" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="185"/>
+    </row>
+    <row r="220" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B220" s="185"/>
+    </row>
+    <row r="221" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="185"/>
+    </row>
+    <row r="222" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="185"/>
+    </row>
+    <row r="223" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="185"/>
+    </row>
+    <row r="224" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="185"/>
+    </row>
+    <row r="225" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="185"/>
+    </row>
+    <row r="226" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="185"/>
+    </row>
+    <row r="227" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="185"/>
+    </row>
+    <row r="228" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="185"/>
+    </row>
+    <row r="229" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="185"/>
+    </row>
+    <row r="230" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="185"/>
+    </row>
+    <row r="231" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="185"/>
+    </row>
+    <row r="232" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="185"/>
+    </row>
+    <row r="233" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="185"/>
+    </row>
+    <row r="234" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="185"/>
+    </row>
+    <row r="235" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="185"/>
+    </row>
+    <row r="236" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="185"/>
+    </row>
+    <row r="237" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="185"/>
+    </row>
+    <row r="238" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="185"/>
+    </row>
+    <row r="239" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="185"/>
+    </row>
+    <row r="240" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="185"/>
+    </row>
+    <row r="241" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="185"/>
+    </row>
+    <row r="242" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="185"/>
+    </row>
+    <row r="243" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="185"/>
+    </row>
+    <row r="244" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="185"/>
+    </row>
+    <row r="245" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="185"/>
+    </row>
+    <row r="246" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="185"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D5DE6-DA18-B546-AD09-2D69756AC8F1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16200" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29280" windowHeight="23780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
   <si>
     <t>Source</t>
   </si>
@@ -135,43 +136,13 @@
     <t>part_load_operating_point</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
-    <t>simult_se</t>
-  </si>
-  <si>
     <t>euro/year</t>
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
   </si>
   <si>
     <t>transport_car_using_electricity.converter.ad</t>
@@ -572,21 +543,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1129,630 +1106,627 @@
   </borders>
   <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="32" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="33" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="337">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2099,6 +2073,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2120,7 +2097,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2158,7 +2141,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2196,7 +2185,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2234,7 +2229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2272,7 +2273,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2310,7 +2317,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2348,7 +2361,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvPr id="8" name="Group 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2361,7 +2380,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPr id="10" name="Picture 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2384,7 +2409,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvPr id="13" name="Rectangle 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2443,7 +2474,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2456,7 +2493,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="15" name="Picture 14"/>
+          <xdr:cNvPr id="15" name="Picture 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -2479,7 +2522,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 15"/>
+          <xdr:cNvPr id="16" name="Rectangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2960,15 +3009,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="27" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="19" customWidth="1"/>
@@ -2976,42 +3025,42 @@
     <col min="4" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="25" customFormat="1">
       <c r="A1" s="23"/>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="26"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -3020,118 +3069,118 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="82"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="83" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="85" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="91" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="13" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="92" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="89"/>
+      <c r="C23" s="93" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="84"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="89" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="93" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="94" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="91"/>
-      <c r="C23" s="95" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3144,76 +3193,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="34" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="4.1640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="33" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="5" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="174" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="36"/>
+    <row r="1" spans="2:11">
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="181"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1">
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="35"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3221,14 +3270,14 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="102"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="2:11" s="22" customFormat="1">
+      <c r="B8" s="100"/>
       <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="101" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -3244,7 +3293,7 @@
       </c>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="2:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="22" customFormat="1">
       <c r="B9" s="21"/>
       <c r="C9" s="13"/>
       <c r="D9" s="30"/>
@@ -3255,10 +3304,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="21"/>
       <c r="C10" s="13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="13"/>
@@ -3268,662 +3317,557 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="67" t="s">
-        <v>139</v>
+      <c r="C11" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="33">
+        <v>130</v>
+      </c>
+      <c r="E11" s="32">
         <f>'Research data'!H7</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="126" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="135">
+      <c r="E12" s="133">
         <f>'Research data'!H8/1000</f>
         <v>0.1</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="126"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="173" t="s">
-        <v>137</v>
+      <c r="I12" s="170" t="s">
+        <v>127</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="67" t="s">
-        <v>92</v>
+      <c r="C13" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="134">
+        <v>119</v>
+      </c>
+      <c r="E13" s="132">
         <f>'Research data'!H9/1000</f>
         <v>8.4999999999999995E-4</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="126"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="132" t="str">
+      <c r="I13" s="130" t="str">
         <f>Sources!D11</f>
         <v>Tesla model s owner's manual</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="38" t="s">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="39">
         <v>1</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="101"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="38" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="99"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="39">
         <v>0</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
-      <c r="C16" s="38" t="s">
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="99"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="2:11" ht="17" thickBot="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="39">
         <v>0</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
-      <c r="C17" s="38" t="s">
-        <v>43</v>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="99"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickBot="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>0</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="99"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" ht="17" thickBot="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>0</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="38" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="99"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>0</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="33" t="s">
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="99"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="17" thickBot="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="109">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="99"/>
+    </row>
+    <row r="21" spans="1:11" ht="17" thickBot="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="37" t="s">
         <v>35</v>
-      </c>
-      <c r="J19" s="101"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
-      <c r="C20" s="167" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="111">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="101"/>
-    </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
-      <c r="C21" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="40">
         <v>0</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="101"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="167" t="s">
-        <v>46</v>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" thickBot="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="164" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="111">
+      <c r="E22" s="109">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="101"/>
-    </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="149">
-        <v>0.221747873829401</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="101"/>
-    </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
-      <c r="C24" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="149">
-        <v>0.78572582355204501</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="101"/>
-    </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
-      <c r="C25" s="38" t="s">
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="99"/>
+    </row>
+    <row r="24" spans="1:11" ht="17" thickBot="1">
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="102"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="138"/>
+    </row>
+    <row r="25" spans="1:11" ht="17" thickBot="1">
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="140">
+        <v>0</v>
+      </c>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="139"/>
+      <c r="I25" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="138"/>
+    </row>
+    <row r="26" spans="1:11" ht="17" thickBot="1">
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="149">
-        <v>0.28698540649274501</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="101"/>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="149">
-        <v>0.97934745639203202</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="38"/>
-      <c r="I26" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="101"/>
-    </row>
-    <row r="27" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
-      <c r="C27" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="45">
-        <v>1358.90321232822</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="101"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="101"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="13" t="s">
+      <c r="E26" s="142">
+        <v>0</v>
+      </c>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="139"/>
+      <c r="I26" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="138"/>
+    </row>
+    <row r="27" spans="1:11" ht="17" thickBot="1">
+      <c r="A27" s="134"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="144" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="145" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="142">
+        <v>0</v>
+      </c>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="144"/>
+      <c r="I27" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="1:11" ht="17" thickBot="1">
+      <c r="A28" s="134"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="145"/>
+      <c r="E28" s="142">
+        <v>0</v>
+      </c>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
-    </row>
-    <row r="30" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="141" t="s">
+      <c r="H28" s="144"/>
+      <c r="I28" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="146"/>
+    </row>
+    <row r="29" spans="1:11" ht="17" thickBot="1">
+      <c r="A29" s="134"/>
+      <c r="B29" s="143"/>
+      <c r="C29" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="D29" s="145"/>
+      <c r="E29" s="142">
+        <v>0</v>
+      </c>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="144"/>
+      <c r="I29" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="146"/>
+    </row>
+    <row r="30" spans="1:11" ht="17" thickBot="1">
+      <c r="A30" s="134"/>
+      <c r="B30" s="143"/>
+      <c r="C30" s="144" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="145"/>
       <c r="E30" s="142">
         <v>0</v>
       </c>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="141"/>
-      <c r="I30" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="140"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="144">
+      <c r="F30" s="144"/>
+      <c r="G30" s="144" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="144"/>
+      <c r="I30" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="146"/>
+    </row>
+    <row r="31" spans="1:11" ht="17" thickBot="1">
+      <c r="A31" s="134"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="145"/>
+      <c r="E31" s="142">
         <v>0</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="141"/>
-      <c r="I31" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31" s="140"/>
-    </row>
-    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="147" t="s">
+      <c r="F31" s="144"/>
+      <c r="G31" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="144">
+      <c r="H31" s="144"/>
+      <c r="I31" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="146"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" thickBot="1">
+      <c r="A32" s="134"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="139" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="142">
         <v>0</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="143" t="s">
+      <c r="F32" s="139"/>
+      <c r="G32" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="J32" s="148"/>
-    </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146" t="s">
+      <c r="H32" s="139"/>
+      <c r="I32" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="138"/>
+    </row>
+    <row r="33" spans="1:10" ht="17" thickBot="1">
+      <c r="A33" s="134"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="139" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="147"/>
-      <c r="E33" s="144">
+      <c r="D33" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="142">
         <v>0</v>
       </c>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="146"/>
-      <c r="I33" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33" s="148"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="144">
-        <v>0</v>
-      </c>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="146"/>
-      <c r="I34" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" s="148"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="144">
-        <v>0</v>
-      </c>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="146"/>
-      <c r="I35" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35" s="148"/>
-    </row>
-    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="147"/>
-      <c r="E36" s="144">
-        <v>0</v>
-      </c>
-      <c r="F36" s="146"/>
-      <c r="G36" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="146"/>
-      <c r="I36" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="148"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="144">
-        <v>0</v>
-      </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="141"/>
-      <c r="I37" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="J37" s="140"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="144">
-        <v>0</v>
-      </c>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="140"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="136"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="140"/>
-    </row>
-    <row r="40" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="13" t="s">
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="138"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="134"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="138"/>
+    </row>
+    <row r="35" spans="1:10" ht="17" thickBot="1">
+      <c r="B35" s="38"/>
+      <c r="C35" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="101"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="20" t="s">
+      <c r="D35" s="102"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="99"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" thickBot="1">
+      <c r="B36" s="38"/>
+      <c r="C36" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E36" s="39">
         <f>'Research data'!H11</f>
         <v>13</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="38"/>
-      <c r="I41" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="J41" s="101"/>
-    </row>
-    <row r="42" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="20" t="s">
+      <c r="F36" s="37"/>
+      <c r="G36" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="99"/>
+    </row>
+    <row r="37" spans="1:10" ht="17" thickBot="1">
+      <c r="A37" s="134"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="139" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="144">
+      <c r="E37" s="142">
         <v>0</v>
       </c>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="141"/>
-      <c r="I42" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="J42" s="140"/>
-    </row>
-    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="107"/>
-      <c r="C43" s="63" t="s">
+      <c r="F37" s="139"/>
+      <c r="G37" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="139"/>
+      <c r="I37" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" s="138"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1">
+      <c r="B38" s="105"/>
+      <c r="C38" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D38" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E38" s="106">
         <v>0</v>
       </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="99"/>
+    </row>
+    <row r="39" spans="1:10" ht="17" thickBot="1">
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3935,8 +3879,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A2:Q15"/>
@@ -3945,88 +3889,88 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="46" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="46" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="46" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="46"/>
-    <col min="12" max="12" width="2.5" style="46" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="46"/>
-    <col min="15" max="15" width="13.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="75" style="46" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="46"/>
+    <col min="1" max="2" width="3.5" style="44" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="44" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="44" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="44" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="44" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="44"/>
+    <col min="12" max="12" width="2.5" style="44" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="44"/>
+    <col min="15" max="15" width="13.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" style="44" customWidth="1"/>
+    <col min="17" max="17" width="75" style="44" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="44"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" thickBot="1"/>
+    <row r="3" spans="1:17">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:17" s="22" customFormat="1">
       <c r="B4" s="21"/>
-      <c r="C4" s="96" t="s">
-        <v>67</v>
+      <c r="C4" s="94" t="s">
+        <v>57</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="96"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="94"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="N4" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="96" t="s">
-        <v>134</v>
-      </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="49"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="Q5" s="62"/>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="116"/>
+      <c r="K4" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1">
+      <c r="B5" s="47"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4034,109 +3978,109 @@
       <c r="G6" s="31"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="61"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="115"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="117" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="118" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="119"/>
-      <c r="H7" s="120">
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" ht="17" thickBot="1">
+      <c r="A7" s="113"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118">
         <f>M7</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="K7" s="120">
+      <c r="I7" s="119"/>
+      <c r="K7" s="118">
         <f>Notes!E212</f>
         <v>1.8963536042885052</v>
       </c>
-      <c r="L7" s="122"/>
-      <c r="M7" s="120">
+      <c r="L7" s="120"/>
+      <c r="M7" s="118">
         <f>Notes!E210</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="131" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="115"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="117" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="133" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="119"/>
-      <c r="H8" s="169">
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="129" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickBot="1">
+      <c r="A8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="131" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="117"/>
+      <c r="H8" s="166">
         <f>O8</f>
         <v>100</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="122"/>
-      <c r="O8" s="169">
+      <c r="I8" s="119"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="166">
         <f>Notes!D120</f>
         <v>100</v>
       </c>
-      <c r="P8" s="122"/>
-      <c r="Q8" s="170" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="153" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="119"/>
-      <c r="H9" s="120">
+      <c r="P8" s="120"/>
+      <c r="Q8" s="167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" thickBot="1">
+      <c r="A9" s="113"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="150" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118">
         <f>N9</f>
         <v>0.85</v>
       </c>
-      <c r="I9" s="121"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="120">
+      <c r="I9" s="119"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="118">
         <f>Notes!E94</f>
         <v>0.85</v>
       </c>
-      <c r="O9" s="122"/>
-      <c r="P9" s="122"/>
-      <c r="Q9" s="131"/>
-    </row>
-    <row r="10" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="129"/>
+    </row>
+    <row r="10" spans="1:17" ht="17" thickBot="1">
+      <c r="B10" s="47"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
@@ -4146,43 +4090,43 @@
       <c r="G10" s="31"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="61"/>
-    </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="56" t="s">
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="59"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" thickBot="1">
+      <c r="B11" s="47"/>
+      <c r="C11" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="51" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="57">
+      <c r="G11" s="95"/>
+      <c r="H11" s="55">
         <f>K11</f>
         <v>13</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="K11" s="120">
+      <c r="I11" s="51"/>
+      <c r="K11" s="118">
         <f>Notes!E22</f>
         <v>13</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="66"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="64"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="47"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
@@ -4190,18 +4134,18 @@
       <c r="G12" s="31"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="52"/>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" thickBot="1">
+      <c r="B13" s="47"/>
       <c r="C13" s="12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4209,59 +4153,59 @@
       <c r="G13" s="31"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="62"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="100" t="s">
-        <v>70</v>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" ht="17" thickBot="1">
+      <c r="B14" s="47"/>
+      <c r="C14" s="98" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="54">
+      <c r="G14" s="96"/>
+      <c r="H14" s="52">
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="65"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="97"/>
-      <c r="H15" s="59">
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="1:17" ht="17" thickBot="1">
+      <c r="B15" s="47"/>
+      <c r="C15" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="95"/>
+      <c r="H15" s="57">
         <v>0</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="66"/>
+      <c r="I15" s="58"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4270,8 +4214,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J27"/>
@@ -4280,34 +4224,34 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="69" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="69" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="69" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="69" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="74" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="74" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="69"/>
+    <col min="1" max="1" width="3.5" style="67" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="67" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="72" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" style="72" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="67" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="72"/>
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="70"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
@@ -4317,21 +4261,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="72"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="77"/>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="70"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="75"/>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
@@ -4345,20 +4289,20 @@
         <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="72"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="70"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4368,236 +4312,236 @@
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="72"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="124" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="70"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="70"/>
+      <c r="C8" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="122">
+        <v>2013</v>
+      </c>
+      <c r="G8" s="122">
+        <v>2012</v>
+      </c>
+      <c r="H8" s="123">
+        <v>42326</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="70"/>
+      <c r="C9" s="147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="70"/>
+      <c r="C10" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="125">
+        <v>2014</v>
+      </c>
+      <c r="G10" s="125">
+        <v>2014</v>
+      </c>
+      <c r="H10" s="128">
+        <v>42326</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="124" t="s">
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="70"/>
+      <c r="C11" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="67">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="67">
+        <v>2013</v>
+      </c>
+      <c r="H11" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="70"/>
+      <c r="C12" s="168" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="165" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="66">
+        <v>2016</v>
+      </c>
+      <c r="G12" s="66">
+        <v>2016</v>
+      </c>
+      <c r="H12" s="169">
+        <v>42606</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="70"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="2:10" s="171" customFormat="1">
+      <c r="C14" s="171" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="171" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="124">
-        <v>2013</v>
-      </c>
-      <c r="G8" s="124">
-        <v>2012</v>
-      </c>
-      <c r="H8" s="125">
-        <v>42326</v>
-      </c>
-      <c r="I8" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="124" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="150" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="72"/>
-      <c r="C10" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="127" t="s">
+      <c r="G14" s="171">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="172"/>
+      <c r="J14" s="171" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" s="171" customFormat="1">
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+    </row>
+    <row r="16" spans="2:10" s="171" customFormat="1">
+      <c r="C16" s="171" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="171" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="127">
-        <v>2014</v>
-      </c>
-      <c r="G10" s="127">
-        <v>2014</v>
-      </c>
-      <c r="H10" s="130">
-        <v>42326</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="129" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="72"/>
-      <c r="C11" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="152" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="152" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="69">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="69">
-        <v>2013</v>
-      </c>
-      <c r="H11" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" s="152" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="72"/>
-      <c r="C12" s="171" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="168" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="168" t="s">
-        <v>132</v>
-      </c>
-      <c r="F12" s="68">
-        <v>2016</v>
-      </c>
-      <c r="G12" s="68">
-        <v>2016</v>
-      </c>
-      <c r="H12" s="172">
-        <v>42606</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="72"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="68"/>
-    </row>
-    <row r="14" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="183" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="183" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="183">
+      <c r="G16" s="171">
         <v>2015</v>
       </c>
-      <c r="H14" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="184"/>
-      <c r="J14" s="183" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-    </row>
-    <row r="16" spans="2:10" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="183" t="s">
-        <v>145</v>
-      </c>
-      <c r="D16" s="183" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="183" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="183">
-        <v>2015</v>
-      </c>
-      <c r="H16" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="184"/>
-      <c r="J16" s="183" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="72"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="72"/>
-      <c r="C18" s="79"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="72"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="72"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="72"/>
-      <c r="C22" s="113"/>
-      <c r="H22" s="114"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="72"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="72"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="72"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="72"/>
+      <c r="H16" s="172" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="172"/>
+      <c r="J16" s="171" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="70"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="70"/>
+      <c r="C18" s="77"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="66"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="70"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="70"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="70"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="70"/>
+      <c r="C22" s="111"/>
+      <c r="H22" s="112"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="70"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="70"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="70"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="125"/>
+      <c r="B26" s="126"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4606,8 +4550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:M246"/>
@@ -4616,852 +4560,852 @@
       <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="157" customWidth="1"/>
-    <col min="3" max="3" width="22" style="157" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="157" customWidth="1"/>
-    <col min="5" max="5" width="12" style="157" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
-    <col min="7" max="7" width="13" style="157" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="157" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="157"/>
-    <col min="10" max="10" width="19.83203125" style="157" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="157"/>
+    <col min="1" max="2" width="3.5" style="154" customWidth="1"/>
+    <col min="3" max="3" width="22" style="154" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="154" customWidth="1"/>
+    <col min="5" max="5" width="12" style="154" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="154" customWidth="1"/>
+    <col min="7" max="7" width="13" style="154" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="154" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="154"/>
+    <col min="10" max="10" width="19.83203125" style="154" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="154"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="158"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="159"/>
-      <c r="M2" s="159"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="164"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-      <c r="K5" s="165"/>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="164"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="165"/>
-      <c r="K6" s="165"/>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="164"/>
-      <c r="C7" s="157" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="164"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="164"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="164"/>
-      <c r="C10" s="157" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="157">
+    <row r="1" spans="1:13" ht="17" thickBot="1"/>
+    <row r="2" spans="1:13">
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
+      <c r="M2" s="156"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="159" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="161"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
+      <c r="M6" s="162"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="161"/>
+      <c r="C7" s="154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="161"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="161"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="161"/>
+      <c r="C10" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="154">
         <v>0.7</v>
       </c>
-      <c r="F10" s="157" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="164"/>
-      <c r="E11" s="157">
+      <c r="F10" s="154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="161"/>
+      <c r="E11" s="154">
         <f>1/E10</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F11" s="157" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="164"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="164"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="164"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="164"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="164"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="164"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="164"/>
-      <c r="C21" s="157" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="164"/>
-      <c r="E22" s="157">
+      <c r="F11" s="154" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="161"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="161"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="161"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="161"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="161"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="161"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="161"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="161"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="161"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="161"/>
+      <c r="C21" s="154" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="161"/>
+      <c r="E22" s="154">
         <v>13</v>
       </c>
-      <c r="F22" s="157" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="164"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="164"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="164"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="164"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="164"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="164"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="164"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="164"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="164"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="164"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="164"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="164"/>
-    </row>
-    <row r="35" spans="2:3" s="163" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="166"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="164"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="164"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="164"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="164"/>
-      <c r="C39" s="157" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="164"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="164"/>
-      <c r="C41" s="157" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="164"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="164"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="164"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="164"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="164"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="164"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="164"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="164"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="164"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="164"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="164"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="164"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="164"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="164"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="164"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="164"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="164"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="164"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="164"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="164"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="164"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="164"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="164"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="164"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="164"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="164"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="164"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="164"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="164"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="164"/>
-      <c r="E71" s="157">
+      <c r="F22" s="154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="161"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="161"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="161"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="161"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="161"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="161"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="161"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="161"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="161"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="161"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="161"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="161"/>
+    </row>
+    <row r="35" spans="2:3" s="160" customFormat="1">
+      <c r="B35" s="163"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="161"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="161"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="161"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="161"/>
+      <c r="C39" s="154" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="161"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="161"/>
+      <c r="C41" s="154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="161"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="161"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="161"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="161"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="161"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="161"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="161"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="161"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="161"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="161"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="161"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="161"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="161"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="161"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="161"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="161"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="161"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="161"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="161"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="161"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="161"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="161"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="161"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="161"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="161"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="161"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="161"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="161"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="161"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="161"/>
+      <c r="E71" s="154">
         <v>0.65</v>
       </c>
-      <c r="F71" s="157" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="164"/>
-      <c r="E72" s="157">
+      <c r="F71" s="154" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="161"/>
+      <c r="E72" s="154">
         <f>1/E71</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="F72" s="157" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="164"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="164"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="164"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="164"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="164"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="164"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="164"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" s="164"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="164"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="164"/>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" s="164"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" s="164"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" s="164"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" s="164"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" s="164"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" s="164"/>
-    </row>
-    <row r="90" spans="2:7" s="163" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" s="164"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="164"/>
-      <c r="C92" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="157">
+      <c r="F72" s="154" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="161"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="161"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="161"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="161"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="161"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="161"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="161"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="161"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="161"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="161"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="161"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="161"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="161"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="161"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="161"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="161"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="161"/>
+    </row>
+    <row r="90" spans="2:7" s="160" customFormat="1">
+      <c r="B90" s="163"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="161"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="161"/>
+      <c r="C92" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="E92" s="154">
         <v>85</v>
       </c>
-      <c r="F92" s="157" t="s">
-        <v>91</v>
-      </c>
-      <c r="G92" s="157" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="164"/>
-      <c r="C93" s="157" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" s="157">
+      <c r="F92" s="154" t="s">
+        <v>81</v>
+      </c>
+      <c r="G92" s="154" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="161"/>
+      <c r="C93" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="154">
         <v>1</v>
       </c>
-      <c r="F93" s="157" t="s">
+      <c r="F93" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="G93" s="157" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="164"/>
-      <c r="E94" s="157">
+      <c r="G93" s="154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="161"/>
+      <c r="E94" s="154">
         <f>E93/100*E92</f>
         <v>0.85</v>
       </c>
-      <c r="F94" s="157" t="s">
-        <v>121</v>
-      </c>
-      <c r="G94" s="157" t="s">
+      <c r="F94" s="154" t="s">
+        <v>111</v>
+      </c>
+      <c r="G94" s="154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="161"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="161"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="161"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="161"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="161"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="161"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="161"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="161"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="161"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="161"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="161"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="161"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="161"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="161"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="161"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="161"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="161"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="161"/>
+    </row>
+    <row r="113" spans="1:5" s="160" customFormat="1">
+      <c r="A113" s="152"/>
+      <c r="B113" s="153"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="161"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="161"/>
+      <c r="C115" s="154" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="164"/>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" s="164"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="164"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="164"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="164"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="164"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="164"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="164"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="164"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="164"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="164"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="164"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="164"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="164"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="164"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="164"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="164"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="164"/>
-    </row>
-    <row r="113" spans="1:5" s="163" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="155"/>
-      <c r="B113" s="156"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="164"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="164"/>
-      <c r="C115" s="157" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="164"/>
-      <c r="C116" s="157" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="164"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="164"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="164"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="164"/>
-      <c r="C120" s="157" t="s">
-        <v>127</v>
-      </c>
-      <c r="D120" s="157">
+    <row r="116" spans="1:5">
+      <c r="B116" s="161"/>
+      <c r="C116" s="154" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="161"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="161"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="161"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="161"/>
+      <c r="C120" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="D120" s="154">
         <v>100</v>
       </c>
-      <c r="E120" s="157" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="164"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="164"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="164"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="164"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="164"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="164"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="164"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="164"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="164"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="164"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="164"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="164"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="164"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="164"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="164"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="164"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="164"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="164"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="164"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="164"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="164"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="164"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="164"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="164"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="164"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="164"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="164"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="164"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="164"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="164"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="164"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="164"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="164"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="164"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="164"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="164"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="164"/>
-    </row>
-    <row r="200" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="185"/>
-      <c r="C201" s="186" t="s">
-        <v>142</v>
-      </c>
-      <c r="D201" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E201" s="187">
+      <c r="E120" s="154" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="B121" s="161"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="B122" s="161"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="B123" s="161"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="B124" s="161"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="B125" s="161"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="B126" s="161"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="B127" s="161"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="B128" s="161"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="161"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="161"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="161"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="161"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="161"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="161"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="161"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="161"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="161"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="161"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="161"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="161"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="161"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="161"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="161"/>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="161"/>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="161"/>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="161"/>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="161"/>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="161"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="161"/>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="161"/>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="161"/>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="161"/>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="161"/>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="161"/>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="161"/>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="161"/>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="161"/>
+    </row>
+    <row r="200" spans="2:6" ht="17" thickBot="1"/>
+    <row r="201" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B201" s="173"/>
+      <c r="C201" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="D201" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E201" s="175">
         <v>105088.9</v>
       </c>
-      <c r="F201" s="129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="185"/>
-      <c r="E202" s="129">
+      <c r="F201" s="127" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B202" s="173"/>
+      <c r="E202" s="127">
         <f>E201*1000000</f>
         <v>105088900000</v>
       </c>
-      <c r="F202" s="129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" s="129" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="185"/>
-      <c r="D203" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="E203" s="188">
+      <c r="F202" s="127" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B203" s="173"/>
+      <c r="D203" s="127" t="s">
+        <v>139</v>
+      </c>
+      <c r="E203" s="176">
         <f>(97.3+42.2)</f>
         <v>139.5</v>
       </c>
-      <c r="F203" s="129" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="185"/>
-      <c r="E204" s="129">
+      <c r="F203" s="127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" s="127" customFormat="1">
+      <c r="B204" s="173"/>
+      <c r="E204" s="127">
         <f>E203*1000000000</f>
         <v>139500000000</v>
       </c>
-      <c r="F204" s="129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="185"/>
-    </row>
-    <row r="206" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="185"/>
-      <c r="E206" s="189">
+      <c r="F204" s="127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" s="127" customFormat="1">
+      <c r="B205" s="173"/>
+    </row>
+    <row r="206" spans="2:6" s="127" customFormat="1">
+      <c r="B206" s="173"/>
+      <c r="E206" s="177">
         <f>E204/E202</f>
         <v>1.3274475230019536</v>
       </c>
-      <c r="F206" s="129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="185"/>
-    </row>
-    <row r="208" spans="2:6" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="185"/>
-    </row>
-    <row r="209" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="185"/>
-    </row>
-    <row r="210" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="185"/>
-      <c r="D210" s="129" t="str">
+      <c r="F206" s="127" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" s="127" customFormat="1">
+      <c r="B207" s="173"/>
+    </row>
+    <row r="208" spans="2:6" s="127" customFormat="1">
+      <c r="B208" s="173"/>
+    </row>
+    <row r="209" spans="2:7" s="127" customFormat="1">
+      <c r="B209" s="173"/>
+    </row>
+    <row r="210" spans="2:7" s="127" customFormat="1">
+      <c r="B210" s="173"/>
+      <c r="D210" s="127" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
       </c>
-      <c r="E210" s="129">
+      <c r="E210" s="127">
         <f>E206*E72</f>
         <v>2.0422269584645436</v>
       </c>
-      <c r="F210" s="129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G210" s="96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="185"/>
-    </row>
-    <row r="212" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="185"/>
-      <c r="D212" s="129" t="str">
+      <c r="F210" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="G210" s="94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" s="127" customFormat="1">
+      <c r="B211" s="173"/>
+    </row>
+    <row r="212" spans="2:7" s="127" customFormat="1">
+      <c r="B212" s="173"/>
+      <c r="D212" s="127" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
       </c>
-      <c r="E212" s="129">
+      <c r="E212" s="127">
         <f>E206*E11</f>
         <v>1.8963536042885052</v>
       </c>
-      <c r="G212" s="96" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="185"/>
-    </row>
-    <row r="214" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="185"/>
-    </row>
-    <row r="215" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="185"/>
-    </row>
-    <row r="216" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="185"/>
-    </row>
-    <row r="217" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="185"/>
-    </row>
-    <row r="218" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="185"/>
-    </row>
-    <row r="219" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B219" s="185"/>
-    </row>
-    <row r="220" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B220" s="185"/>
-    </row>
-    <row r="221" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B221" s="185"/>
-    </row>
-    <row r="222" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="185"/>
-    </row>
-    <row r="223" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B223" s="185"/>
-    </row>
-    <row r="224" spans="2:7" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B224" s="185"/>
-    </row>
-    <row r="225" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B225" s="185"/>
-    </row>
-    <row r="226" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="185"/>
-    </row>
-    <row r="227" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B227" s="185"/>
-    </row>
-    <row r="228" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="185"/>
-    </row>
-    <row r="229" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="185"/>
-    </row>
-    <row r="230" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B230" s="185"/>
-    </row>
-    <row r="231" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B231" s="185"/>
-    </row>
-    <row r="232" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="185"/>
-    </row>
-    <row r="233" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B233" s="185"/>
-    </row>
-    <row r="234" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B234" s="185"/>
-    </row>
-    <row r="235" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B235" s="185"/>
-    </row>
-    <row r="236" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B236" s="185"/>
-    </row>
-    <row r="237" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B237" s="185"/>
-    </row>
-    <row r="238" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="185"/>
-    </row>
-    <row r="239" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="185"/>
-    </row>
-    <row r="240" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B240" s="185"/>
-    </row>
-    <row r="241" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B241" s="185"/>
-    </row>
-    <row r="242" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="185"/>
-    </row>
-    <row r="243" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="185"/>
-    </row>
-    <row r="244" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="185"/>
-    </row>
-    <row r="245" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="185"/>
-    </row>
-    <row r="246" spans="2:2" s="129" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B246" s="185"/>
+      <c r="G212" s="94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" s="127" customFormat="1">
+      <c r="B213" s="173"/>
+    </row>
+    <row r="214" spans="2:7" s="127" customFormat="1">
+      <c r="B214" s="173"/>
+    </row>
+    <row r="215" spans="2:7" s="127" customFormat="1">
+      <c r="B215" s="173"/>
+    </row>
+    <row r="216" spans="2:7" s="127" customFormat="1">
+      <c r="B216" s="173"/>
+    </row>
+    <row r="217" spans="2:7" s="127" customFormat="1">
+      <c r="B217" s="173"/>
+    </row>
+    <row r="218" spans="2:7" s="127" customFormat="1">
+      <c r="B218" s="173"/>
+    </row>
+    <row r="219" spans="2:7" s="127" customFormat="1">
+      <c r="B219" s="173"/>
+    </row>
+    <row r="220" spans="2:7" s="127" customFormat="1">
+      <c r="B220" s="173"/>
+    </row>
+    <row r="221" spans="2:7" s="127" customFormat="1">
+      <c r="B221" s="173"/>
+    </row>
+    <row r="222" spans="2:7" s="127" customFormat="1">
+      <c r="B222" s="173"/>
+    </row>
+    <row r="223" spans="2:7" s="127" customFormat="1">
+      <c r="B223" s="173"/>
+    </row>
+    <row r="224" spans="2:7" s="127" customFormat="1">
+      <c r="B224" s="173"/>
+    </row>
+    <row r="225" spans="2:2" s="127" customFormat="1">
+      <c r="B225" s="173"/>
+    </row>
+    <row r="226" spans="2:2" s="127" customFormat="1">
+      <c r="B226" s="173"/>
+    </row>
+    <row r="227" spans="2:2" s="127" customFormat="1">
+      <c r="B227" s="173"/>
+    </row>
+    <row r="228" spans="2:2" s="127" customFormat="1">
+      <c r="B228" s="173"/>
+    </row>
+    <row r="229" spans="2:2" s="127" customFormat="1">
+      <c r="B229" s="173"/>
+    </row>
+    <row r="230" spans="2:2" s="127" customFormat="1">
+      <c r="B230" s="173"/>
+    </row>
+    <row r="231" spans="2:2" s="127" customFormat="1">
+      <c r="B231" s="173"/>
+    </row>
+    <row r="232" spans="2:2" s="127" customFormat="1">
+      <c r="B232" s="173"/>
+    </row>
+    <row r="233" spans="2:2" s="127" customFormat="1">
+      <c r="B233" s="173"/>
+    </row>
+    <row r="234" spans="2:2" s="127" customFormat="1">
+      <c r="B234" s="173"/>
+    </row>
+    <row r="235" spans="2:2" s="127" customFormat="1">
+      <c r="B235" s="173"/>
+    </row>
+    <row r="236" spans="2:2" s="127" customFormat="1">
+      <c r="B236" s="173"/>
+    </row>
+    <row r="237" spans="2:2" s="127" customFormat="1">
+      <c r="B237" s="173"/>
+    </row>
+    <row r="238" spans="2:2" s="127" customFormat="1">
+      <c r="B238" s="173"/>
+    </row>
+    <row r="239" spans="2:2" s="127" customFormat="1">
+      <c r="B239" s="173"/>
+    </row>
+    <row r="240" spans="2:2" s="127" customFormat="1">
+      <c r="B240" s="173"/>
+    </row>
+    <row r="241" spans="2:2" s="127" customFormat="1">
+      <c r="B241" s="173"/>
+    </row>
+    <row r="242" spans="2:2" s="127" customFormat="1">
+      <c r="B242" s="173"/>
+    </row>
+    <row r="243" spans="2:2" s="127" customFormat="1">
+      <c r="B243" s="173"/>
+    </row>
+    <row r="244" spans="2:2" s="127" customFormat="1">
+      <c r="B244" s="173"/>
+    </row>
+    <row r="245" spans="2:2" s="127" customFormat="1">
+      <c r="B245" s="173"/>
+    </row>
+    <row r="246" spans="2:2" s="127" customFormat="1">
+      <c r="B246" s="173"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D5DE6-DA18-B546-AD09-2D69756AC8F1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B43779-535A-C845-8294-A888BF08689E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29280" windowHeight="23780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="143">
   <si>
     <t>Source</t>
   </si>
@@ -443,9 +449,6 @@
     <t>battery size</t>
   </si>
   <si>
-    <t>kWh/day</t>
-  </si>
-  <si>
     <t>Tesla model s owner's manual</t>
   </si>
   <si>
@@ -465,9 +468,6 @@
   </si>
   <si>
     <t>p 6.4</t>
-  </si>
-  <si>
-    <t>MWh/day</t>
   </si>
   <si>
     <t>See argumentation in Notes</t>
@@ -538,20 +538,29 @@
   </si>
   <si>
     <t>passenger km/MJ</t>
+  </si>
+  <si>
+    <t>% per hour</t>
+  </si>
+  <si>
+    <t>per hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0E+00;\_x0000_"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000%"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,6 +818,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1104,7 +1119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="337">
+  <cellStyleXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1442,8 +1457,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1642,7 +1658,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,9 +1677,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1727,8 +1739,22 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="34" fillId="2" borderId="0" xfId="337" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="34" fillId="2" borderId="0" xfId="337" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="337">
+  <cellStyles count="338">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2066,6 +2092,7 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="337" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3184,7 +3211,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B2">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3200,7 +3227,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD27"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3225,36 +3252,36 @@
       <c r="G1" s="34"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="178" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
+      <c r="B2" s="176" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="181"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="183"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="184"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="186"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="184"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
     </row>
@@ -3320,10 +3347,10 @@
     <row r="11" spans="2:11" s="22" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="21"/>
       <c r="C11" s="65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11" s="32">
         <f>'Research data'!H7</f>
@@ -3347,15 +3374,15 @@
       <c r="D12" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="132">
         <f>'Research data'!H8/1000</f>
         <v>0.1</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="124"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="170" t="s">
-        <v>127</v>
+      <c r="I12" s="168" t="s">
+        <v>125</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -3365,11 +3392,11 @@
         <v>82</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="132">
-        <f>'Research data'!H9/1000</f>
-        <v>8.4999999999999995E-4</v>
+        <v>141</v>
+      </c>
+      <c r="E13" s="192">
+        <f>'Research data'!H9</f>
+        <v>4.1867632449266168E-4</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="124"/>
@@ -3454,7 +3481,7 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="141" t="s">
+      <c r="I17" s="140" t="s">
         <v>92</v>
       </c>
       <c r="J17" s="99"/>
@@ -3502,7 +3529,7 @@
     </row>
     <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="38"/>
-      <c r="C20" s="164" t="s">
+      <c r="C20" s="162" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -3540,7 +3567,7 @@
     </row>
     <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="38"/>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="162" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -3569,218 +3596,218 @@
       <c r="J23" s="99"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="102"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="138"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="139" t="s">
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="138" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="140">
+      <c r="E25" s="139">
         <v>0</v>
       </c>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139" t="s">
+      <c r="F25" s="138"/>
+      <c r="G25" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="139"/>
-      <c r="I25" s="141" t="s">
+      <c r="H25" s="138"/>
+      <c r="I25" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="138"/>
+      <c r="J25" s="137"/>
     </row>
     <row r="26" spans="1:11" ht="17" thickBot="1">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="139" t="s">
+      <c r="A26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="138" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="142">
+      <c r="E26" s="141">
         <v>0</v>
       </c>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139" t="s">
+      <c r="F26" s="138"/>
+      <c r="G26" s="138" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="139"/>
-      <c r="I26" s="141" t="s">
+      <c r="H26" s="138"/>
+      <c r="I26" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="J26" s="138"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1">
-      <c r="A27" s="134"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="144" t="s">
+      <c r="A27" s="133"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="145" t="s">
+      <c r="D27" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="142">
+      <c r="E27" s="141">
         <v>0</v>
       </c>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144" t="s">
+      <c r="F27" s="143"/>
+      <c r="G27" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="141" t="s">
+      <c r="H27" s="143"/>
+      <c r="I27" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="146"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
-      <c r="A28" s="134"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="144" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="145"/>
-      <c r="E28" s="142">
+      <c r="D28" s="144"/>
+      <c r="E28" s="141">
         <v>0</v>
       </c>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144" t="s">
+      <c r="F28" s="143"/>
+      <c r="G28" s="143" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="141" t="s">
+      <c r="H28" s="143"/>
+      <c r="I28" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J28" s="146"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="1:11" ht="17" thickBot="1">
-      <c r="A29" s="134"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="144" t="s">
+      <c r="A29" s="133"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="142">
+      <c r="D29" s="144"/>
+      <c r="E29" s="141">
         <v>0</v>
       </c>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144" t="s">
+      <c r="F29" s="143"/>
+      <c r="G29" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="144"/>
-      <c r="I29" s="141" t="s">
+      <c r="H29" s="143"/>
+      <c r="I29" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="146"/>
+      <c r="J29" s="145"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
-      <c r="A30" s="134"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="144" t="s">
+      <c r="A30" s="133"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="145"/>
-      <c r="E30" s="142">
+      <c r="D30" s="144"/>
+      <c r="E30" s="141">
         <v>0</v>
       </c>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144" t="s">
+      <c r="F30" s="143"/>
+      <c r="G30" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="H30" s="144"/>
-      <c r="I30" s="141" t="s">
+      <c r="H30" s="143"/>
+      <c r="I30" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="146"/>
+      <c r="J30" s="145"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1">
-      <c r="A31" s="134"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144" t="s">
+      <c r="A31" s="133"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="142">
+      <c r="D31" s="144"/>
+      <c r="E31" s="141">
         <v>0</v>
       </c>
-      <c r="F31" s="144"/>
-      <c r="G31" s="139" t="s">
+      <c r="F31" s="143"/>
+      <c r="G31" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="141" t="s">
+      <c r="H31" s="143"/>
+      <c r="I31" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="146"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="134"/>
-      <c r="B32" s="135"/>
-      <c r="C32" s="139" t="s">
+      <c r="A32" s="133"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="138" t="s">
         <v>101</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="142">
+      <c r="E32" s="141">
         <v>0</v>
       </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139" t="s">
+      <c r="F32" s="138"/>
+      <c r="G32" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="H32" s="139"/>
-      <c r="I32" s="141" t="s">
+      <c r="H32" s="138"/>
+      <c r="I32" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="138"/>
+      <c r="J32" s="137"/>
     </row>
     <row r="33" spans="1:10" ht="17" thickBot="1">
-      <c r="A33" s="134"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="139" t="s">
+      <c r="A33" s="133"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="138" t="s">
         <v>103</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="142">
+      <c r="E33" s="141">
         <v>0</v>
       </c>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="141" t="s">
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="138"/>
+      <c r="J33" s="137"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="139"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="20"/>
       <c r="E34" s="104"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="137"/>
     </row>
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="B35" s="38"/>
@@ -3818,26 +3845,26 @@
       <c r="J36" s="99"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="139" t="s">
+      <c r="A37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="138" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="142">
+      <c r="E37" s="141">
         <v>0</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139" t="s">
+      <c r="F37" s="138"/>
+      <c r="G37" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="139"/>
-      <c r="I37" s="141" t="s">
+      <c r="H37" s="138"/>
+      <c r="I37" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="J37" s="138"/>
+      <c r="J37" s="137"/>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1">
       <c r="B38" s="105"/>
@@ -3886,7 +3913,7 @@
   <dimension ref="A2:Q15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3945,10 +3972,10 @@
         <v>73</v>
       </c>
       <c r="N4" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O4" s="94" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P4" s="94"/>
       <c r="Q4" s="94" t="s">
@@ -3990,10 +4017,10 @@
       <c r="A7" s="113"/>
       <c r="B7" s="114"/>
       <c r="C7" s="115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="115"/>
       <c r="F7" s="116" t="s">
@@ -4033,7 +4060,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="117"/>
-      <c r="H8" s="166">
+      <c r="H8" s="164">
         <f>O8</f>
         <v>100</v>
       </c>
@@ -4042,13 +4069,13 @@
       <c r="L8" s="120"/>
       <c r="M8" s="120"/>
       <c r="N8" s="120"/>
-      <c r="O8" s="166">
+      <c r="O8" s="164">
         <f>Notes!D120</f>
         <v>100</v>
       </c>
       <c r="P8" s="120"/>
-      <c r="Q8" s="167" t="s">
-        <v>120</v>
+      <c r="Q8" s="165" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17" thickBot="1">
@@ -4059,21 +4086,21 @@
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="115"/>
-      <c r="F9" s="150" t="s">
-        <v>111</v>
+      <c r="F9" s="189" t="s">
+        <v>141</v>
       </c>
       <c r="G9" s="117"/>
-      <c r="H9" s="118">
+      <c r="H9" s="190">
         <f>N9</f>
-        <v>0.85</v>
+        <v>4.1867632449266168E-4</v>
       </c>
       <c r="I9" s="119"/>
       <c r="K9" s="120"/>
       <c r="L9" s="120"/>
       <c r="M9" s="120"/>
-      <c r="N9" s="118">
+      <c r="N9" s="191">
         <f>Notes!E94</f>
-        <v>0.85</v>
+        <v>4.1867632449266168E-4</v>
       </c>
       <c r="O9" s="120"/>
       <c r="P9" s="120"/>
@@ -4344,7 +4371,7 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="70"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="146" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4380,11 +4407,11 @@
       <c r="C11" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="149" t="s">
+      <c r="D11" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="148" t="s">
         <v>112</v>
-      </c>
-      <c r="E11" s="149" t="s">
-        <v>113</v>
       </c>
       <c r="F11" s="67">
         <v>2013</v>
@@ -4392,23 +4419,23 @@
       <c r="G11" s="67">
         <v>2013</v>
       </c>
-      <c r="H11" s="151" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="149" t="s">
+      <c r="H11" s="149" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="148" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="70"/>
-      <c r="C12" s="168" t="s">
+      <c r="C12" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>122</v>
+      <c r="D12" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="163" t="s">
+        <v>120</v>
       </c>
       <c r="F12" s="66">
         <v>2016</v>
@@ -4416,17 +4443,17 @@
       <c r="G12" s="66">
         <v>2016</v>
       </c>
-      <c r="H12" s="169">
+      <c r="H12" s="167">
         <v>42606</v>
       </c>
       <c r="I12" s="66"/>
       <c r="J12" s="66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="70"/>
-      <c r="C13" s="148"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="111"/>
       <c r="E13" s="111"/>
       <c r="F13" s="66"/>
@@ -4434,50 +4461,50 @@
       <c r="H13" s="110"/>
       <c r="I13" s="66"/>
     </row>
-    <row r="14" spans="2:10" s="171" customFormat="1">
-      <c r="C14" s="171" t="s">
+    <row r="14" spans="2:10" s="169" customFormat="1">
+      <c r="C14" s="169" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="169">
+        <v>2015</v>
+      </c>
+      <c r="H14" s="170" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="I14" s="170"/>
+      <c r="J14" s="169" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="171" t="s">
+    </row>
+    <row r="15" spans="2:10" s="169" customFormat="1">
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+    </row>
+    <row r="16" spans="2:10" s="169" customFormat="1">
+      <c r="C16" s="169" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="169" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="171">
+      <c r="G16" s="169">
         <v>2015</v>
       </c>
-      <c r="H14" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="172"/>
-      <c r="J14" s="171" t="s">
+      <c r="H16" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="170"/>
+      <c r="J16" s="169" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" s="171" customFormat="1">
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-    </row>
-    <row r="16" spans="2:10" s="171" customFormat="1">
-      <c r="C16" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="171" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="171" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="171">
-        <v>2015</v>
-      </c>
-      <c r="H16" s="172" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="172"/>
-      <c r="J16" s="171" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4556,723 +4583,722 @@
   </sheetPr>
   <dimension ref="A1:M246"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="154" customWidth="1"/>
-    <col min="3" max="3" width="22" style="154" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="154" customWidth="1"/>
-    <col min="5" max="5" width="12" style="154" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="154" customWidth="1"/>
-    <col min="7" max="7" width="13" style="154" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="154" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="154"/>
-    <col min="10" max="10" width="19.83203125" style="154" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="154"/>
+    <col min="1" max="2" width="3.5" style="152" customWidth="1"/>
+    <col min="3" max="3" width="22" style="152" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="152" customWidth="1"/>
+    <col min="5" max="5" width="12" style="152" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="152" customWidth="1"/>
+    <col min="7" max="7" width="13" style="152" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="152" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="152"/>
+    <col min="10" max="10" width="19.83203125" style="152" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1"/>
     <row r="2" spans="1:13">
-      <c r="B2" s="155"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="159" t="s">
+      <c r="A3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159" t="s">
+      <c r="D3" s="157"/>
+      <c r="E3" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="160"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="161"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="161"/>
-      <c r="C7" s="154" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="152" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="161"/>
+      <c r="B8" s="159"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="161"/>
+      <c r="B9" s="159"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="161"/>
-      <c r="C10" s="154" t="s">
+      <c r="B10" s="159"/>
+      <c r="C10" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="154">
+      <c r="E10" s="152">
         <v>0.7</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="152" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="161"/>
-      <c r="E11" s="154">
+      <c r="B11" s="159"/>
+      <c r="E11" s="152">
         <f>1/E10</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F11" s="154" t="s">
+      <c r="F11" s="152" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="161"/>
+      <c r="B12" s="159"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="161"/>
+      <c r="B13" s="159"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="161"/>
+      <c r="B14" s="159"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="161"/>
+      <c r="B15" s="159"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="161"/>
+      <c r="B16" s="159"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="161"/>
+      <c r="B17" s="159"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="161"/>
+      <c r="B18" s="159"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="161"/>
+      <c r="B19" s="159"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="161"/>
+      <c r="B20" s="159"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="161"/>
-      <c r="C21" s="154" t="s">
+      <c r="B21" s="159"/>
+      <c r="C21" s="152" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="161"/>
-      <c r="E22" s="154">
+      <c r="B22" s="159"/>
+      <c r="E22" s="152">
         <v>13</v>
       </c>
-      <c r="F22" s="154" t="s">
+      <c r="F22" s="152" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="161"/>
+      <c r="B23" s="159"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="161"/>
+      <c r="B24" s="159"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="161"/>
+      <c r="B25" s="159"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="161"/>
+      <c r="B26" s="159"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="161"/>
+      <c r="B27" s="159"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="161"/>
+      <c r="B28" s="159"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="161"/>
+      <c r="B29" s="159"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="161"/>
+      <c r="B30" s="159"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="161"/>
+      <c r="B31" s="159"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="161"/>
+      <c r="B32" s="159"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="161"/>
+      <c r="B33" s="159"/>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="161"/>
-    </row>
-    <row r="35" spans="2:3" s="160" customFormat="1">
-      <c r="B35" s="163"/>
+      <c r="B34" s="159"/>
+    </row>
+    <row r="35" spans="2:3" s="158" customFormat="1">
+      <c r="B35" s="161"/>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="161"/>
+      <c r="B36" s="159"/>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="161"/>
+      <c r="B37" s="159"/>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="161"/>
+      <c r="B38" s="159"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="161"/>
-      <c r="C39" s="154" t="s">
+      <c r="B39" s="159"/>
+      <c r="C39" s="152" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="161"/>
+      <c r="B40" s="159"/>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="161"/>
-      <c r="C41" s="154" t="s">
+      <c r="B41" s="159"/>
+      <c r="C41" s="152" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="161"/>
+      <c r="B42" s="159"/>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="161"/>
+      <c r="B43" s="159"/>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="161"/>
+      <c r="B44" s="159"/>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="161"/>
+      <c r="B45" s="159"/>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="161"/>
+      <c r="B46" s="159"/>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="161"/>
+      <c r="B47" s="159"/>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="161"/>
+      <c r="B48" s="159"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="161"/>
+      <c r="B49" s="159"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="161"/>
+      <c r="B50" s="159"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="161"/>
+      <c r="B51" s="159"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="161"/>
+      <c r="B52" s="159"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="161"/>
+      <c r="B53" s="159"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="161"/>
+      <c r="B54" s="159"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="161"/>
+      <c r="B55" s="159"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="161"/>
+      <c r="B56" s="159"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="161"/>
+      <c r="B57" s="159"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="161"/>
+      <c r="B58" s="159"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="161"/>
+      <c r="B59" s="159"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="161"/>
+      <c r="B60" s="159"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="161"/>
+      <c r="B61" s="159"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="161"/>
+      <c r="B62" s="159"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="161"/>
+      <c r="B63" s="159"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="161"/>
+      <c r="B64" s="159"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="161"/>
+      <c r="B65" s="159"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="161"/>
+      <c r="B66" s="159"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="161"/>
+      <c r="B67" s="159"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="161"/>
+      <c r="B68" s="159"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="161"/>
+      <c r="B69" s="159"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="161"/>
+      <c r="B70" s="159"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="161"/>
-      <c r="E71" s="154">
+      <c r="B71" s="159"/>
+      <c r="E71" s="152">
         <v>0.65</v>
       </c>
-      <c r="F71" s="154" t="s">
+      <c r="F71" s="152" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="161"/>
-      <c r="E72" s="154">
+      <c r="B72" s="159"/>
+      <c r="E72" s="152">
         <f>1/E71</f>
         <v>1.5384615384615383</v>
       </c>
-      <c r="F72" s="154" t="s">
+      <c r="F72" s="152" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="161"/>
+      <c r="B73" s="159"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="161"/>
+      <c r="B74" s="159"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="161"/>
+      <c r="B75" s="159"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="161"/>
+      <c r="B76" s="159"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="161"/>
+      <c r="B77" s="159"/>
     </row>
     <row r="78" spans="2:6">
-      <c r="B78" s="161"/>
+      <c r="B78" s="159"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="161"/>
+      <c r="B79" s="159"/>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="161"/>
+      <c r="B80" s="159"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="161"/>
+      <c r="B81" s="159"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="161"/>
+      <c r="B82" s="159"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="161"/>
+      <c r="B83" s="159"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="161"/>
+      <c r="B84" s="159"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="161"/>
+      <c r="B85" s="159"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="161"/>
+      <c r="B86" s="159"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="161"/>
+      <c r="B87" s="159"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="161"/>
+      <c r="B88" s="159"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="161"/>
-    </row>
-    <row r="90" spans="2:7" s="160" customFormat="1">
-      <c r="B90" s="163"/>
+      <c r="B89" s="159"/>
+    </row>
+    <row r="90" spans="2:7" s="158" customFormat="1">
+      <c r="B90" s="161"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="161"/>
+      <c r="B91" s="159"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="161"/>
-      <c r="C92" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="E92" s="154">
+      <c r="B92" s="159"/>
+      <c r="C92" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="152">
         <v>85</v>
       </c>
-      <c r="F92" s="154" t="s">
+      <c r="F92" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="G92" s="154" t="s">
+      <c r="G92" s="152" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="161"/>
-      <c r="C93" s="154" t="s">
-        <v>118</v>
-      </c>
-      <c r="E93" s="154">
-        <v>1</v>
-      </c>
-      <c r="F93" s="154" t="s">
-        <v>2</v>
-      </c>
-      <c r="G93" s="154" t="s">
+      <c r="B93" s="159"/>
+      <c r="C93" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" s="187">
+        <v>0.01</v>
+      </c>
+      <c r="G93" s="152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="159"/>
+      <c r="E94" s="188">
+        <f>1-((1-E93)^(1/24))</f>
+        <v>4.1867632449266168E-4</v>
+      </c>
+      <c r="F94" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" s="152" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="161"/>
-      <c r="E94" s="154">
-        <f>E93/100*E92</f>
-        <v>0.85</v>
-      </c>
-      <c r="F94" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" s="154" t="s">
+    <row r="95" spans="2:7">
+      <c r="B95" s="159"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="159"/>
+      <c r="E96" s="186"/>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="159"/>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="159"/>
+      <c r="D98" s="185"/>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="159"/>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="159"/>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="159"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="159"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="159"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="159"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="159"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="159"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="159"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="159"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="159"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="159"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" s="159"/>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="159"/>
+    </row>
+    <row r="113" spans="1:5" s="158" customFormat="1">
+      <c r="A113" s="150"/>
+      <c r="B113" s="151"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" s="159"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="B115" s="159"/>
+      <c r="C115" s="152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="B116" s="159"/>
+      <c r="C116" s="152" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="B117" s="159"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="B118" s="159"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="B119" s="159"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="B120" s="159"/>
+      <c r="C120" s="152" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="161"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="161"/>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="161"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="161"/>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="161"/>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="161"/>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="161"/>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="161"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="161"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="161"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="161"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="161"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="161"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="161"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="161"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="161"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="161"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="161"/>
-    </row>
-    <row r="113" spans="1:5" s="160" customFormat="1">
-      <c r="A113" s="152"/>
-      <c r="B113" s="153"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="B114" s="161"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="B115" s="161"/>
-      <c r="C115" s="154" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="B116" s="161"/>
-      <c r="C116" s="154" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="B117" s="161"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="B118" s="161"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="B119" s="161"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="B120" s="161"/>
-      <c r="C120" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="D120" s="154">
+      <c r="D120" s="152">
         <v>100</v>
       </c>
-      <c r="E120" s="154" t="s">
+      <c r="E120" s="152" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="B121" s="161"/>
+      <c r="B121" s="159"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="B122" s="161"/>
+      <c r="B122" s="159"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="B123" s="161"/>
+      <c r="B123" s="159"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="B124" s="161"/>
+      <c r="B124" s="159"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="B125" s="161"/>
+      <c r="B125" s="159"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="B126" s="161"/>
+      <c r="B126" s="159"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="B127" s="161"/>
+      <c r="B127" s="159"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="B128" s="161"/>
+      <c r="B128" s="159"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="161"/>
+      <c r="B129" s="159"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="161"/>
+      <c r="B130" s="159"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="161"/>
+      <c r="B131" s="159"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="161"/>
+      <c r="B132" s="159"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="161"/>
+      <c r="B133" s="159"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="161"/>
+      <c r="B134" s="159"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="161"/>
+      <c r="B135" s="159"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="161"/>
+      <c r="B136" s="159"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="161"/>
+      <c r="B137" s="159"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="161"/>
+      <c r="B138" s="159"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="161"/>
+      <c r="B139" s="159"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="161"/>
+      <c r="B140" s="159"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="161"/>
+      <c r="B141" s="159"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="161"/>
+      <c r="B142" s="159"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="161"/>
+      <c r="B143" s="159"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="161"/>
+      <c r="B144" s="159"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="161"/>
+      <c r="B145" s="159"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="161"/>
+      <c r="B146" s="159"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="161"/>
+      <c r="B147" s="159"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="161"/>
+      <c r="B148" s="159"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="161"/>
+      <c r="B149" s="159"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="161"/>
+      <c r="B150" s="159"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="161"/>
+      <c r="B151" s="159"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="161"/>
+      <c r="B152" s="159"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="161"/>
+      <c r="B153" s="159"/>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="161"/>
+      <c r="B154" s="159"/>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="161"/>
+      <c r="B155" s="159"/>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="161"/>
+      <c r="B156" s="159"/>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="161"/>
+      <c r="B157" s="159"/>
     </row>
     <row r="200" spans="2:6" ht="17" thickBot="1"/>
     <row r="201" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B201" s="173"/>
-      <c r="C201" s="174" t="s">
-        <v>132</v>
+      <c r="B201" s="171"/>
+      <c r="C201" s="172" t="s">
+        <v>130</v>
       </c>
       <c r="D201" s="127" t="s">
-        <v>137</v>
-      </c>
-      <c r="E201" s="175">
+        <v>135</v>
+      </c>
+      <c r="E201" s="173">
         <v>105088.9</v>
       </c>
       <c r="F201" s="127" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="202" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B202" s="173"/>
+      <c r="B202" s="171"/>
       <c r="E202" s="127">
         <f>E201*1000000</f>
         <v>105088900000</v>
       </c>
       <c r="F202" s="127" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
+      <c r="B203" s="171"/>
+      <c r="D203" s="127" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" s="127" customFormat="1" ht="17" thickBot="1">
-      <c r="B203" s="173"/>
-      <c r="D203" s="127" t="s">
-        <v>139</v>
-      </c>
-      <c r="E203" s="176">
+      <c r="E203" s="174">
         <f>(97.3+42.2)</f>
         <v>139.5</v>
       </c>
       <c r="F203" s="127" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="2:6" s="127" customFormat="1">
-      <c r="B204" s="173"/>
+      <c r="B204" s="171"/>
       <c r="E204" s="127">
         <f>E203*1000000000</f>
         <v>139500000000</v>
       </c>
       <c r="F204" s="127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="2:6" s="127" customFormat="1">
-      <c r="B205" s="173"/>
+      <c r="B205" s="171"/>
     </row>
     <row r="206" spans="2:6" s="127" customFormat="1">
-      <c r="B206" s="173"/>
-      <c r="E206" s="177">
+      <c r="B206" s="171"/>
+      <c r="E206" s="175">
         <f>E204/E202</f>
         <v>1.3274475230019536</v>
       </c>
       <c r="F206" s="127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="2:6" s="127" customFormat="1">
-      <c r="B207" s="173"/>
+      <c r="B207" s="171"/>
     </row>
     <row r="208" spans="2:6" s="127" customFormat="1">
-      <c r="B208" s="173"/>
+      <c r="B208" s="171"/>
     </row>
     <row r="209" spans="2:7" s="127" customFormat="1">
-      <c r="B209" s="173"/>
+      <c r="B209" s="171"/>
     </row>
     <row r="210" spans="2:7" s="127" customFormat="1">
-      <c r="B210" s="173"/>
+      <c r="B210" s="171"/>
       <c r="D210" s="127" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
@@ -5282,17 +5308,17 @@
         <v>2.0422269584645436</v>
       </c>
       <c r="F210" s="127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G210" s="94" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="211" spans="2:7" s="127" customFormat="1">
-      <c r="B211" s="173"/>
+      <c r="B211" s="171"/>
     </row>
     <row r="212" spans="2:7" s="127" customFormat="1">
-      <c r="B212" s="173"/>
+      <c r="B212" s="171"/>
       <c r="D212" s="127" t="str">
         <f>Dashboard!C11</f>
         <v>output.passenger_kms</v>
@@ -5306,106 +5332,106 @@
       </c>
     </row>
     <row r="213" spans="2:7" s="127" customFormat="1">
-      <c r="B213" s="173"/>
+      <c r="B213" s="171"/>
     </row>
     <row r="214" spans="2:7" s="127" customFormat="1">
-      <c r="B214" s="173"/>
+      <c r="B214" s="171"/>
     </row>
     <row r="215" spans="2:7" s="127" customFormat="1">
-      <c r="B215" s="173"/>
+      <c r="B215" s="171"/>
     </row>
     <row r="216" spans="2:7" s="127" customFormat="1">
-      <c r="B216" s="173"/>
+      <c r="B216" s="171"/>
     </row>
     <row r="217" spans="2:7" s="127" customFormat="1">
-      <c r="B217" s="173"/>
+      <c r="B217" s="171"/>
     </row>
     <row r="218" spans="2:7" s="127" customFormat="1">
-      <c r="B218" s="173"/>
+      <c r="B218" s="171"/>
     </row>
     <row r="219" spans="2:7" s="127" customFormat="1">
-      <c r="B219" s="173"/>
+      <c r="B219" s="171"/>
     </row>
     <row r="220" spans="2:7" s="127" customFormat="1">
-      <c r="B220" s="173"/>
+      <c r="B220" s="171"/>
     </row>
     <row r="221" spans="2:7" s="127" customFormat="1">
-      <c r="B221" s="173"/>
+      <c r="B221" s="171"/>
     </row>
     <row r="222" spans="2:7" s="127" customFormat="1">
-      <c r="B222" s="173"/>
+      <c r="B222" s="171"/>
     </row>
     <row r="223" spans="2:7" s="127" customFormat="1">
-      <c r="B223" s="173"/>
+      <c r="B223" s="171"/>
     </row>
     <row r="224" spans="2:7" s="127" customFormat="1">
-      <c r="B224" s="173"/>
+      <c r="B224" s="171"/>
     </row>
     <row r="225" spans="2:2" s="127" customFormat="1">
-      <c r="B225" s="173"/>
+      <c r="B225" s="171"/>
     </row>
     <row r="226" spans="2:2" s="127" customFormat="1">
-      <c r="B226" s="173"/>
+      <c r="B226" s="171"/>
     </row>
     <row r="227" spans="2:2" s="127" customFormat="1">
-      <c r="B227" s="173"/>
+      <c r="B227" s="171"/>
     </row>
     <row r="228" spans="2:2" s="127" customFormat="1">
-      <c r="B228" s="173"/>
+      <c r="B228" s="171"/>
     </row>
     <row r="229" spans="2:2" s="127" customFormat="1">
-      <c r="B229" s="173"/>
+      <c r="B229" s="171"/>
     </row>
     <row r="230" spans="2:2" s="127" customFormat="1">
-      <c r="B230" s="173"/>
+      <c r="B230" s="171"/>
     </row>
     <row r="231" spans="2:2" s="127" customFormat="1">
-      <c r="B231" s="173"/>
+      <c r="B231" s="171"/>
     </row>
     <row r="232" spans="2:2" s="127" customFormat="1">
-      <c r="B232" s="173"/>
+      <c r="B232" s="171"/>
     </row>
     <row r="233" spans="2:2" s="127" customFormat="1">
-      <c r="B233" s="173"/>
+      <c r="B233" s="171"/>
     </row>
     <row r="234" spans="2:2" s="127" customFormat="1">
-      <c r="B234" s="173"/>
+      <c r="B234" s="171"/>
     </row>
     <row r="235" spans="2:2" s="127" customFormat="1">
-      <c r="B235" s="173"/>
+      <c r="B235" s="171"/>
     </row>
     <row r="236" spans="2:2" s="127" customFormat="1">
-      <c r="B236" s="173"/>
+      <c r="B236" s="171"/>
     </row>
     <row r="237" spans="2:2" s="127" customFormat="1">
-      <c r="B237" s="173"/>
+      <c r="B237" s="171"/>
     </row>
     <row r="238" spans="2:2" s="127" customFormat="1">
-      <c r="B238" s="173"/>
+      <c r="B238" s="171"/>
     </row>
     <row r="239" spans="2:2" s="127" customFormat="1">
-      <c r="B239" s="173"/>
+      <c r="B239" s="171"/>
     </row>
     <row r="240" spans="2:2" s="127" customFormat="1">
-      <c r="B240" s="173"/>
+      <c r="B240" s="171"/>
     </row>
     <row r="241" spans="2:2" s="127" customFormat="1">
-      <c r="B241" s="173"/>
+      <c r="B241" s="171"/>
     </row>
     <row r="242" spans="2:2" s="127" customFormat="1">
-      <c r="B242" s="173"/>
+      <c r="B242" s="171"/>
     </row>
     <row r="243" spans="2:2" s="127" customFormat="1">
-      <c r="B243" s="173"/>
+      <c r="B243" s="171"/>
     </row>
     <row r="244" spans="2:2" s="127" customFormat="1">
-      <c r="B244" s="173"/>
+      <c r="B244" s="171"/>
     </row>
     <row r="245" spans="2:2" s="127" customFormat="1">
-      <c r="B245" s="173"/>
+      <c r="B245" s="171"/>
     </row>
     <row r="246" spans="2:2" s="127" customFormat="1">
-      <c r="B246" s="173"/>
+      <c r="B246" s="171"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
